--- a/regulations outputs/CDlib Communities Comparison.xlsx
+++ b/regulations outputs/CDlib Communities Comparison.xlsx
@@ -606,34 +606,34 @@
         <v>27.09090909090909</v>
       </c>
       <c r="F2" s="1">
-        <v>22.92307692307692</v>
+        <v>27.09090909090909</v>
       </c>
       <c r="G2" s="1">
         <v>14.9</v>
       </c>
       <c r="H2" s="1">
-        <v>29.8</v>
+        <v>27.09090909090909</v>
       </c>
       <c r="I2" s="1">
         <v>14.9</v>
       </c>
       <c r="J2" s="1">
-        <v>33.11111111111111</v>
+        <v>42.57142857142857</v>
       </c>
       <c r="K2" s="1">
         <v>31.35</v>
       </c>
       <c r="L2" s="1">
-        <v>31.75</v>
+        <v>31.05</v>
       </c>
       <c r="M2" s="1">
-        <v>122.35</v>
+        <v>130.75</v>
       </c>
       <c r="N2" s="1">
-        <v>41.77777777777778</v>
+        <v>56.71428571428572</v>
       </c>
       <c r="O2" s="1">
-        <v>100.8888888888889</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -653,19 +653,19 @@
         <v>11</v>
       </c>
       <c r="F3" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G3" s="1">
         <v>20</v>
       </c>
       <c r="H3" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I3" s="1">
         <v>20</v>
       </c>
       <c r="J3" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K3" s="1">
         <v>20</v>
@@ -677,10 +677,10 @@
         <v>20</v>
       </c>
       <c r="N3" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O3" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -691,43 +691,43 @@
         <v>1.500616906647827</v>
       </c>
       <c r="C4" s="1">
-        <v>3.357866381023601</v>
+        <v>2.689600793333616</v>
       </c>
       <c r="D4" s="1">
         <v>1.966750359847368</v>
       </c>
       <c r="E4" s="1">
-        <v>2.784925108555346</v>
+        <v>3.215286537833374</v>
       </c>
       <c r="F4" s="1">
-        <v>1.657346867446568</v>
+        <v>3.408442130993997</v>
       </c>
       <c r="G4" s="1">
         <v>2.430245264527194</v>
       </c>
       <c r="H4" s="1">
-        <v>2.818857147707909</v>
+        <v>2.560984393454109</v>
       </c>
       <c r="I4" s="1">
-        <v>3.010869108562082</v>
+        <v>3.887544474627343</v>
       </c>
       <c r="J4" s="1">
-        <v>1.104734664282503</v>
+        <v>1.81815508399859</v>
       </c>
       <c r="K4" s="1">
         <v>1.643124414160537</v>
       </c>
       <c r="L4" s="1">
-        <v>2.065491233036649</v>
+        <v>1.708605638335603</v>
       </c>
       <c r="M4" s="1">
-        <v>2.662093758274733</v>
+        <v>3.197320894375371</v>
       </c>
       <c r="N4" s="1">
-        <v>1.037139766788879</v>
+        <v>1.631246678717729</v>
       </c>
       <c r="O4" s="1">
-        <v>1.156439268557511</v>
+        <v>2.146977633621474</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -738,43 +738,43 @@
         <v>1.263157894736842</v>
       </c>
       <c r="C5" s="1">
-        <v>3.052631578947369</v>
+        <v>2</v>
       </c>
       <c r="D5" s="1">
         <v>1.695652173913043</v>
       </c>
       <c r="E5" s="1">
-        <v>1.916666666666667</v>
+        <v>2.521739130434783</v>
       </c>
       <c r="F5" s="1">
-        <v>0.8461538461538461</v>
+        <v>2.454545454545455</v>
       </c>
       <c r="G5" s="1">
         <v>1.931034482758621</v>
       </c>
       <c r="H5" s="1">
-        <v>1.855072463768116</v>
+        <v>1.371428571428571</v>
       </c>
       <c r="I5" s="1">
-        <v>3</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="J5" s="1">
-        <v>0.673469387755102</v>
+        <v>1.869565217391304</v>
       </c>
       <c r="K5" s="1">
         <v>1.425</v>
       </c>
       <c r="L5" s="1">
-        <v>1.518987341772152</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="M5" s="1">
-        <v>1.74757281553398</v>
+        <v>2.265560165975104</v>
       </c>
       <c r="N5" s="1">
-        <v>0.582089552238806</v>
+        <v>1.428571428571429</v>
       </c>
       <c r="O5" s="1">
-        <v>1.028776978417266</v>
+        <v>2.047619047619047</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -785,43 +785,43 @@
         <v>0.03795830796087927</v>
       </c>
       <c r="C6" s="1">
-        <v>0.06325977401591093</v>
+        <v>0.06580461594350939</v>
       </c>
       <c r="D6" s="1">
-        <v>0.05732227823373656</v>
+        <v>0.0573222782337366</v>
       </c>
       <c r="E6" s="1">
-        <v>0.05238457077494077</v>
+        <v>0.05307912528525605</v>
       </c>
       <c r="F6" s="1">
-        <v>0.0487585423107072</v>
+        <v>0.04821869430260466</v>
       </c>
       <c r="G6" s="1">
         <v>0.04474727734480366</v>
       </c>
       <c r="H6" s="1">
-        <v>0.05778441093994242</v>
+        <v>0.05122772172347635</v>
       </c>
       <c r="I6" s="1">
-        <v>0.06164136272574344</v>
+        <v>0.06117857925664939</v>
       </c>
       <c r="J6" s="1">
-        <v>0.09720228935138837</v>
+        <v>0.09280560508538917</v>
       </c>
       <c r="K6" s="1">
         <v>0.09884882386630968</v>
       </c>
       <c r="L6" s="1">
-        <v>0.08439159833434171</v>
+        <v>0.08633408069090355</v>
       </c>
       <c r="M6" s="1">
-        <v>0.1836165279004932</v>
+        <v>0.1952216730280285</v>
       </c>
       <c r="N6" s="1">
-        <v>0.1043193129792317</v>
+        <v>0.1000802768992263</v>
       </c>
       <c r="O6" s="1">
-        <v>0.1179350684533611</v>
+        <v>0.1137605669732899</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -832,43 +832,43 @@
         <v>0.7883610714010773</v>
       </c>
       <c r="C7" s="1">
-        <v>0.6533403373615391</v>
+        <v>0.6663154061400369</v>
       </c>
       <c r="D7" s="1">
         <v>0.6843945513784327</v>
       </c>
       <c r="E7" s="1">
-        <v>0.7216555728374572</v>
+        <v>0.7161448570877723</v>
       </c>
       <c r="F7" s="1">
-        <v>0.765461608398266</v>
+        <v>0.7461952963441729</v>
       </c>
       <c r="G7" s="1">
         <v>0.7584962548294267</v>
       </c>
       <c r="H7" s="1">
-        <v>0.7057858158486561</v>
+        <v>0.7389624907851601</v>
       </c>
       <c r="I7" s="1">
-        <v>0.6645530850238776</v>
+        <v>0.643052600830759</v>
       </c>
       <c r="J7" s="1">
-        <v>0.4356210929820622</v>
+        <v>0.4899919926557102</v>
       </c>
       <c r="K7" s="1">
         <v>0.6927010498148586</v>
       </c>
       <c r="L7" s="1">
-        <v>0.6711180765646594</v>
+        <v>0.6708329354415556</v>
       </c>
       <c r="M7" s="1">
-        <v>0.5981241606149347</v>
+        <v>0.5921639808246307</v>
       </c>
       <c r="N7" s="1">
-        <v>0.4414861646694195</v>
+        <v>0.5035982550813104</v>
       </c>
       <c r="O7" s="1">
-        <v>0.5613541440316769</v>
+        <v>0.5717481397008716</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -879,43 +879,43 @@
         <v>0.3143608637122148</v>
       </c>
       <c r="C8" s="1">
-        <v>0.3057058694945691</v>
+        <v>0.2988180243181845</v>
       </c>
       <c r="D8" s="1">
         <v>0.2394070541097065</v>
       </c>
       <c r="E8" s="1">
-        <v>0.1703336086112981</v>
+        <v>0.1697858716198998</v>
       </c>
       <c r="F8" s="1">
-        <v>0.2605502295652695</v>
+        <v>0.1569853998844493</v>
       </c>
       <c r="G8" s="1">
         <v>0.2664452421217127</v>
       </c>
       <c r="H8" s="1">
-        <v>0.1562827270334774</v>
+        <v>0.1713912663823905</v>
       </c>
       <c r="I8" s="1">
-        <v>0.3328890979348645</v>
+        <v>0.3608796526457046</v>
       </c>
       <c r="J8" s="1">
-        <v>0.4328750515190259</v>
+        <v>0.2522416020374059</v>
       </c>
       <c r="K8" s="1">
         <v>0.2699934873723555</v>
       </c>
       <c r="L8" s="1">
-        <v>0.1989454264061394</v>
+        <v>0.1989330494816953</v>
       </c>
       <c r="M8" s="1">
-        <v>0.0550785602679621</v>
+        <v>0.05152193181265015</v>
       </c>
       <c r="N8" s="1">
-        <v>0.4148405642314327</v>
+        <v>0.219580755923929</v>
       </c>
       <c r="O8" s="1">
-        <v>0.1922816098545079</v>
+        <v>0.04636605985893332</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -926,43 +926,43 @@
         <v>3.240410770684245</v>
       </c>
       <c r="C9" s="1">
-        <v>4.559020183033342</v>
+        <v>4.442873310040492</v>
       </c>
       <c r="D9" s="1">
         <v>4.260013418816996</v>
       </c>
       <c r="E9" s="1">
-        <v>4.171789794215917</v>
+        <v>4.288635955385309</v>
       </c>
       <c r="F9" s="1">
-        <v>3.43806965231253</v>
+        <v>3.932244518467429</v>
       </c>
       <c r="G9" s="1">
         <v>3.384065934065934</v>
       </c>
       <c r="H9" s="1">
-        <v>4.436517125148155</v>
+        <v>4.054444634073855</v>
       </c>
       <c r="I9" s="1">
-        <v>4.780728438228438</v>
+        <v>4.946213569749376</v>
       </c>
       <c r="J9" s="1">
-        <v>5.593076059742726</v>
+        <v>7.137714647602406</v>
       </c>
       <c r="K9" s="1">
         <v>6.091878807938591</v>
       </c>
       <c r="L9" s="1">
-        <v>5.771720756780915</v>
+        <v>5.340287200776204</v>
       </c>
       <c r="M9" s="1">
-        <v>6.513498730929191</v>
+        <v>6.722860901813379</v>
       </c>
       <c r="N9" s="1">
-        <v>5.708354545642681</v>
+        <v>7.354525763793889</v>
       </c>
       <c r="O9" s="1">
-        <v>4.939296566069782</v>
+        <v>6.25249633492392</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -973,43 +973,43 @@
         <v>0.3627665506325312</v>
       </c>
       <c r="C10" s="1">
-        <v>0.3759795796308953</v>
+        <v>0.3950416405060368</v>
       </c>
       <c r="D10" s="1">
         <v>0.3828907634129137</v>
       </c>
       <c r="E10" s="1">
-        <v>0.42207407559588</v>
+        <v>0.4231111833360709</v>
       </c>
       <c r="F10" s="1">
-        <v>0.3118003839143269</v>
+        <v>0.3630173877992623</v>
       </c>
       <c r="G10" s="1">
         <v>0.3636523199023199</v>
       </c>
       <c r="H10" s="1">
-        <v>0.3918372486774204</v>
+        <v>0.3812818859144811</v>
       </c>
       <c r="I10" s="1">
-        <v>0.3974284130901778</v>
+        <v>0.393635277233423</v>
       </c>
       <c r="J10" s="1">
-        <v>0.3418069584736252</v>
+        <v>0.4213975289483359</v>
       </c>
       <c r="K10" s="1">
         <v>0.4002601707370729</v>
       </c>
       <c r="L10" s="1">
-        <v>0.4323537536231284</v>
+        <v>0.4274558979500145</v>
       </c>
       <c r="M10" s="1">
-        <v>0.4406635806110631</v>
+        <v>0.4507096158243193</v>
       </c>
       <c r="N10" s="1">
-        <v>0.3417607711393022</v>
+        <v>0.4340251000519469</v>
       </c>
       <c r="O10" s="1">
-        <v>0.3487576662243947</v>
+        <v>0.4319271004812937</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1020,43 +1020,43 @@
         <v>10.15767155373278</v>
       </c>
       <c r="C11" s="1">
-        <v>6.879202409432674</v>
+        <v>6.562251606322815</v>
       </c>
       <c r="D11" s="1">
         <v>7.13771513906163</v>
       </c>
       <c r="E11" s="1">
-        <v>7.956651421995815</v>
+        <v>7.926147884814745</v>
       </c>
       <c r="F11" s="1">
-        <v>8.094226040140581</v>
+        <v>8.263443395894845</v>
       </c>
       <c r="G11" s="1">
         <v>8.817090964590964</v>
       </c>
       <c r="H11" s="1">
-        <v>7.649819827077105</v>
+        <v>8.381821332369238</v>
       </c>
       <c r="I11" s="1">
-        <v>7.603365576417046</v>
+        <v>7.35944185183955</v>
       </c>
       <c r="J11" s="1">
-        <v>3.13486790986791</v>
+        <v>4.54444337152747</v>
       </c>
       <c r="K11" s="1">
         <v>10.66604307317079</v>
       </c>
       <c r="L11" s="1">
-        <v>8.129635702364974</v>
+        <v>7.409201147017029</v>
       </c>
       <c r="M11" s="1">
-        <v>4.734030882570691</v>
+        <v>4.581134854190188</v>
       </c>
       <c r="N11" s="1">
-        <v>3.144801547061435</v>
+        <v>4.708702729004541</v>
       </c>
       <c r="O11" s="1">
-        <v>3.065991972580402</v>
+        <v>3.674811480273174</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1067,43 +1067,43 @@
         <v>0.03575203226876038</v>
       </c>
       <c r="C12" s="1">
-        <v>0.02434300648611413</v>
+        <v>0.02324362171429273</v>
       </c>
       <c r="D12" s="1">
         <v>0.02724394944496315</v>
       </c>
       <c r="E12" s="1">
-        <v>0.02943066984264187</v>
+        <v>0.0292977615961606</v>
       </c>
       <c r="F12" s="1">
-        <v>0.02956793457932462</v>
+        <v>0.03057200390496457</v>
       </c>
       <c r="G12" s="1">
         <v>0.0311346925188499</v>
       </c>
       <c r="H12" s="1">
-        <v>0.02852651865976549</v>
+        <v>0.03089320149196847</v>
       </c>
       <c r="I12" s="1">
-        <v>0.02679566238018645</v>
+        <v>0.02598266872915191</v>
       </c>
       <c r="J12" s="1">
-        <v>0.01246175267059631</v>
+        <v>0.01790333374527633</v>
       </c>
       <c r="K12" s="1">
         <v>0.03971874051055245</v>
       </c>
       <c r="L12" s="1">
-        <v>0.03066563042305572</v>
+        <v>0.02793912701106306</v>
       </c>
       <c r="M12" s="1">
-        <v>0.02662218687217783</v>
+        <v>0.02707406345608526</v>
       </c>
       <c r="N12" s="1">
-        <v>0.01318917844494743</v>
+        <v>0.01974909944001384</v>
       </c>
       <c r="O12" s="1">
-        <v>0.01867212155525388</v>
+        <v>0.02349108275105936</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1114,43 +1114,43 @@
         <v>24.6</v>
       </c>
       <c r="C13" s="1">
-        <v>41</v>
+        <v>42.65</v>
       </c>
       <c r="D13" s="1">
         <v>82.55555555555556</v>
       </c>
       <c r="E13" s="1">
-        <v>61.72727272727273</v>
+        <v>62.54545454545455</v>
       </c>
       <c r="F13" s="1">
-        <v>48.61538461538461</v>
+        <v>56.81818181818182</v>
       </c>
       <c r="G13" s="1">
         <v>29</v>
       </c>
       <c r="H13" s="1">
-        <v>74.90000000000001</v>
+        <v>60.36363636363637</v>
       </c>
       <c r="I13" s="1">
-        <v>39.95</v>
+        <v>39.65</v>
       </c>
       <c r="J13" s="1">
-        <v>140</v>
+        <v>171.8571428571429</v>
       </c>
       <c r="K13" s="1">
         <v>121.15</v>
       </c>
       <c r="L13" s="1">
-        <v>110.5</v>
+        <v>109.1</v>
       </c>
       <c r="M13" s="1">
-        <v>451.25</v>
+        <v>486.65</v>
       </c>
       <c r="N13" s="1">
-        <v>188.3333333333333</v>
+        <v>244.7142857142857</v>
       </c>
       <c r="O13" s="1">
-        <v>403.1111111111111</v>
+        <v>512.1428571428571</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1161,43 +1161,43 @@
         <v>0.7525228463410986</v>
       </c>
       <c r="C14" s="1">
-        <v>0.6252850183136528</v>
+        <v>0.6390357456097291</v>
       </c>
       <c r="D14" s="1">
         <v>0.6189820881902711</v>
       </c>
       <c r="E14" s="1">
-        <v>0.6651296758806162</v>
+        <v>0.65998538412157</v>
       </c>
       <c r="F14" s="1">
-        <v>0.7159816040876065</v>
+        <v>0.6874734705815047</v>
       </c>
       <c r="G14" s="1">
         <v>0.7246540551932619</v>
       </c>
       <c r="H14" s="1">
-        <v>0.6467628769133752</v>
+        <v>0.6817573427727087</v>
       </c>
       <c r="I14" s="1">
-        <v>0.6360048744707326</v>
+        <v>0.6143799226892371</v>
       </c>
       <c r="J14" s="1">
-        <v>0.396282051149256</v>
+        <v>0.4359343574885849</v>
       </c>
       <c r="K14" s="1">
         <v>0.6128733136666937</v>
       </c>
       <c r="L14" s="1">
-        <v>0.6019236622210359</v>
+        <v>0.6077294548246454</v>
       </c>
       <c r="M14" s="1">
-        <v>0.4395020163667181</v>
+        <v>0.4230606336338587</v>
       </c>
       <c r="N14" s="1">
-        <v>0.3903270385941064</v>
+        <v>0.4280215156020052</v>
       </c>
       <c r="O14" s="1">
-        <v>0.4542378701460327</v>
+        <v>0.4243718434395322</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1208,43 +1208,43 @@
         <v>29.65</v>
       </c>
       <c r="C15" s="1">
-        <v>23</v>
+        <v>21.4</v>
       </c>
       <c r="D15" s="1">
         <v>26.66666666666667</v>
       </c>
       <c r="E15" s="1">
-        <v>29.54545454545455</v>
+        <v>28.90909090909091</v>
       </c>
       <c r="F15" s="1">
-        <v>25.30769230769231</v>
+        <v>29.72727272727273</v>
       </c>
       <c r="G15" s="1">
         <v>28.5</v>
       </c>
       <c r="H15" s="1">
-        <v>28.5</v>
+        <v>29.18181818181818</v>
       </c>
       <c r="I15" s="1">
-        <v>23.6</v>
+        <v>25.3</v>
       </c>
       <c r="J15" s="1">
-        <v>11.55555555555556</v>
+        <v>18.42857142857143</v>
       </c>
       <c r="K15" s="1">
         <v>36.15</v>
       </c>
       <c r="L15" s="1">
-        <v>35.25</v>
+        <v>33.15</v>
       </c>
       <c r="M15" s="1">
-        <v>23.75</v>
+        <v>22.65</v>
       </c>
       <c r="N15" s="1">
-        <v>16.44444444444444</v>
+        <v>25.71428571428572</v>
       </c>
       <c r="O15" s="1">
-        <v>14</v>
+        <v>23.14285714285714</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1255,43 +1255,43 @@
         <v>10.15767155373278</v>
       </c>
       <c r="C16" s="1">
-        <v>6.879202409432674</v>
+        <v>6.562251606322815</v>
       </c>
       <c r="D16" s="1">
         <v>7.13771513906163</v>
       </c>
       <c r="E16" s="1">
-        <v>7.956651421995815</v>
+        <v>7.926147884814745</v>
       </c>
       <c r="F16" s="1">
-        <v>8.094226040140581</v>
+        <v>8.263443395894845</v>
       </c>
       <c r="G16" s="1">
         <v>8.817090964590964</v>
       </c>
       <c r="H16" s="1">
-        <v>7.649819827077105</v>
+        <v>8.381821332369238</v>
       </c>
       <c r="I16" s="1">
-        <v>7.603365576417046</v>
+        <v>7.35944185183955</v>
       </c>
       <c r="J16" s="1">
-        <v>3.13486790986791</v>
+        <v>4.54444337152747</v>
       </c>
       <c r="K16" s="1">
         <v>10.66604307317079</v>
       </c>
       <c r="L16" s="1">
-        <v>8.129635702364974</v>
+        <v>7.409201147017029</v>
       </c>
       <c r="M16" s="1">
-        <v>4.734030882570691</v>
+        <v>4.581134854190188</v>
       </c>
       <c r="N16" s="1">
-        <v>3.144801547061435</v>
+        <v>4.708702729004541</v>
       </c>
       <c r="O16" s="1">
-        <v>3.065991972580402</v>
+        <v>3.674811480273174</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1302,43 +1302,43 @@
         <v>0.7819671715503123</v>
       </c>
       <c r="C17" s="1">
-        <v>0.608733101693628</v>
+        <v>0.6273943050413638</v>
       </c>
       <c r="D17" s="1">
         <v>0.5082088200702652</v>
       </c>
       <c r="E17" s="1">
-        <v>0.6325878394593943</v>
+        <v>0.6331725083633221</v>
       </c>
       <c r="F17" s="1">
-        <v>0.7277071102783246</v>
+        <v>0.6848731403667373</v>
       </c>
       <c r="G17" s="1">
         <v>0.7018963675213675</v>
       </c>
       <c r="H17" s="1">
-        <v>0.6100363833123305</v>
+        <v>0.6644139796376185</v>
       </c>
       <c r="I17" s="1">
-        <v>0.5690823392293981</v>
+        <v>0.5365166231182855</v>
       </c>
       <c r="J17" s="1">
-        <v>0.1941724941724942</v>
+        <v>0.2117809833157563</v>
       </c>
       <c r="K17" s="1">
         <v>0.5283193326277565</v>
       </c>
       <c r="L17" s="1">
-        <v>0.500401784995169</v>
+        <v>0.5297899182864054</v>
       </c>
       <c r="M17" s="1">
-        <v>0.3797361604445499</v>
+        <v>0.3475855124553246</v>
       </c>
       <c r="N17" s="1">
-        <v>0.2233491764565211</v>
+        <v>0.2408730054335389</v>
       </c>
       <c r="O17" s="1">
-        <v>0.3363812878809434</v>
+        <v>0.3649966939139813</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1349,43 +1349,43 @@
         <v>0.5835238911181325</v>
       </c>
       <c r="C18" s="1">
-        <v>0.6781046365914787</v>
+        <v>0.580391545159347</v>
       </c>
       <c r="D18" s="1">
         <v>0.6041423722480358</v>
       </c>
       <c r="E18" s="1">
-        <v>0.6223427054180258</v>
+        <v>0.6228964557242463</v>
       </c>
       <c r="F18" s="1">
-        <v>0.4464706447090255</v>
+        <v>0.5758740551908297</v>
       </c>
       <c r="G18" s="1">
         <v>0.549817612942613</v>
       </c>
       <c r="H18" s="1">
-        <v>0.611127563528689</v>
+        <v>0.5782229600455919</v>
       </c>
       <c r="I18" s="1">
-        <v>0.7352003796856739</v>
+        <v>0.7756717822174983</v>
       </c>
       <c r="J18" s="1">
-        <v>0.6066282482949149</v>
+        <v>0.8214058313671309</v>
       </c>
       <c r="K18" s="1">
         <v>0.8348452051006399</v>
       </c>
       <c r="L18" s="1">
-        <v>0.7645054393052726</v>
+        <v>0.6941722936134518</v>
       </c>
       <c r="M18" s="1">
-        <v>0.6881039557278622</v>
+        <v>0.707659629422739</v>
       </c>
       <c r="N18" s="1">
-        <v>0.6141702825318645</v>
+        <v>0.8007216288423539</v>
       </c>
       <c r="O18" s="1">
-        <v>0.5240096491525509</v>
+        <v>0.6113030568846163</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1396,43 +1396,43 @@
         <v>0.1983741155555556</v>
       </c>
       <c r="C19" s="1">
-        <v>0.3542427022222222</v>
+        <v>0.3633712355555554</v>
       </c>
       <c r="D19" s="1">
         <v>0.2519540622222223</v>
       </c>
       <c r="E19" s="1">
-        <v>0.2507444622222222</v>
+        <v>0.2600540444444445</v>
       </c>
       <c r="F19" s="1">
-        <v>0.2239067022222222</v>
+        <v>0.2275414755555555</v>
       </c>
       <c r="G19" s="1">
         <v>0.2448273066666667</v>
       </c>
       <c r="H19" s="1">
-        <v>0.2748967822222222</v>
+        <v>0.2436700444444444</v>
       </c>
       <c r="I19" s="1">
-        <v>0.35769728</v>
+        <v>0.3562248533333333</v>
       </c>
       <c r="J19" s="1">
-        <v>0.4456867555555555</v>
+        <v>0.44439168</v>
       </c>
       <c r="K19" s="1">
         <v>0.1950644622222222</v>
       </c>
       <c r="L19" s="1">
-        <v>0.2775189333333334</v>
+        <v>0.307217351111111</v>
       </c>
       <c r="M19" s="1">
-        <v>0.1662690133333334</v>
+        <v>0.1993355377777778</v>
       </c>
       <c r="N19" s="1">
-        <v>0.4139865600000001</v>
+        <v>0.4022880711111111</v>
       </c>
       <c r="O19" s="1">
-        <v>0.2541890844444444</v>
+        <v>0.2235867022222222</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1443,43 +1443,43 @@
         <v>0.193319937631347</v>
       </c>
       <c r="C20" s="1">
-        <v>0.3860825706731748</v>
+        <v>0.401196863489481</v>
       </c>
       <c r="D20" s="1">
         <v>0.259326798183174</v>
       </c>
       <c r="E20" s="1">
-        <v>0.2625242672813143</v>
+        <v>0.2702619212256797</v>
       </c>
       <c r="F20" s="1">
-        <v>0.2351526721352225</v>
+        <v>0.2376336067611236</v>
       </c>
       <c r="G20" s="1">
         <v>0.254037647165164</v>
       </c>
       <c r="H20" s="1">
-        <v>0.2898695772038053</v>
+        <v>0.2523775201681243</v>
       </c>
       <c r="I20" s="1">
-        <v>0.3737978984475628</v>
+        <v>0.3728124375748537</v>
       </c>
       <c r="J20" s="1">
-        <v>0.4725332971775925</v>
+        <v>0.4582677965335684</v>
       </c>
       <c r="K20" s="1">
         <v>0.9949986848349265</v>
       </c>
       <c r="L20" s="1">
-        <v>0.9046513456714799</v>
+        <v>0.8782611619551215</v>
       </c>
       <c r="M20" s="1">
-        <v>0.9809377895283936</v>
+        <v>0.9794448466770617</v>
       </c>
       <c r="N20" s="1">
-        <v>0.5657630443133799</v>
+        <v>0.5680867014665673</v>
       </c>
       <c r="O20" s="1">
-        <v>0.1362078231984272</v>
+        <v>0.1425380426185796</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1490,43 +1490,43 @@
         <v>-138.3452156609708</v>
       </c>
       <c r="C21" s="1">
-        <v>-46.40364452798664</v>
+        <v>-42.38756592564642</v>
       </c>
       <c r="D21" s="1">
         <v>-25.8993154822017</v>
       </c>
       <c r="E21" s="1">
-        <v>-41.63347790557888</v>
+        <v>-40.01263122372381</v>
       </c>
       <c r="F21" s="1">
-        <v>-60.53003304176467</v>
+        <v>-47.64318765170159</v>
       </c>
       <c r="G21" s="1">
         <v>-108.6605006105006</v>
       </c>
       <c r="H21" s="1">
-        <v>-32.13302701928952</v>
+        <v>-47.60114368124921</v>
       </c>
       <c r="I21" s="1">
-        <v>-56.45274276377217</v>
+        <v>-48.26456564180349</v>
       </c>
       <c r="J21" s="1">
-        <v>22.12387334887336</v>
+        <v>18.15289893252455</v>
       </c>
       <c r="K21" s="1">
         <v>-91.48328530464399</v>
       </c>
       <c r="L21" s="1">
-        <v>-47.15829891168121</v>
+        <v>-41.37827892481649</v>
       </c>
       <c r="M21" s="1">
-        <v>35.58935696716998</v>
+        <v>42.83452095246378</v>
       </c>
       <c r="N21" s="1">
-        <v>23.07197698723123</v>
+        <v>18.52076124352544</v>
       </c>
       <c r="O21" s="1">
-        <v>16.85974134140442</v>
+        <v>18.04379398255523</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1537,37 +1537,37 @@
         <v>0.8103549531670164</v>
       </c>
       <c r="C22" s="1">
-        <v>1.28339894542656</v>
+        <v>1.259926050590764</v>
       </c>
       <c r="D22" s="1">
         <v>0.716987633587454</v>
       </c>
       <c r="E22" s="1">
-        <v>0.7969931247609207</v>
+        <v>0.8417085802876255</v>
       </c>
       <c r="F22" s="1">
-        <v>0.7068024513066337</v>
+        <v>0.7398013818708095</v>
       </c>
       <c r="G22" s="1">
         <v>0.9966420619676608</v>
       </c>
       <c r="H22" s="1">
-        <v>0.8324389335567511</v>
+        <v>0.7773403645475797</v>
       </c>
       <c r="I22" s="1">
-        <v>1.416663888277188</v>
+        <v>1.427660796270332</v>
       </c>
       <c r="J22" s="1">
-        <v>1.065104358356147</v>
+        <v>1.116868060030329</v>
       </c>
       <c r="K22" s="1">
         <v>1.376526039119387</v>
       </c>
       <c r="L22" s="1">
-        <v>1.409151678737484</v>
+        <v>1.367944551751426</v>
       </c>
       <c r="N22" s="1">
-        <v>1.019565091681911</v>
+        <v>1.065421614206192</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1578,43 +1578,43 @@
         <v>-0.1646841808527627</v>
       </c>
       <c r="C23" s="1">
-        <v>-0.05269453414381129</v>
+        <v>-0.04486606872568741</v>
       </c>
       <c r="D23" s="1">
         <v>0.1073286012517606</v>
       </c>
       <c r="E23" s="1">
-        <v>0.03418823147977565</v>
+        <v>0.03498307108788102</v>
       </c>
       <c r="F23" s="1">
-        <v>0.05398270367343998</v>
+        <v>0.02738876603741223</v>
       </c>
       <c r="G23" s="1">
         <v>0.03388386041738194</v>
       </c>
       <c r="H23" s="1">
-        <v>0.03426711275851106</v>
+        <v>0.03042276704517889</v>
       </c>
       <c r="I23" s="1">
-        <v>-0.07362936625346751</v>
+        <v>-0.07771287665928946</v>
       </c>
       <c r="J23" s="1">
-        <v>0.1152790912865179</v>
+        <v>0.03045753840748446</v>
       </c>
       <c r="K23" s="1">
         <v>0.03865179816782002</v>
       </c>
       <c r="L23" s="1">
-        <v>0.01701897657657301</v>
+        <v>0.02179874771322375</v>
       </c>
       <c r="M23" s="1">
-        <v>0.001726809119255389</v>
+        <v>0.001814941994577366</v>
       </c>
       <c r="N23" s="1">
-        <v>0.09311552845823895</v>
+        <v>0.0407303404990822</v>
       </c>
       <c r="O23" s="1">
-        <v>0.01248587344255143</v>
+        <v>0.004472668388316759</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1625,37 +1625,37 @@
         <v>334.7019892218324</v>
       </c>
       <c r="C24" s="1">
-        <v>1206.859168064668</v>
+        <v>1258.309829182152</v>
       </c>
       <c r="D24" s="1">
         <v>384.9490858773361</v>
       </c>
       <c r="E24" s="1">
-        <v>464.1646342910157</v>
+        <v>495.7062429677603</v>
       </c>
       <c r="F24" s="1">
-        <v>378.6036100001463</v>
+        <v>398.8655990756294</v>
       </c>
       <c r="G24" s="1">
         <v>592.987241352283</v>
       </c>
       <c r="H24" s="1">
-        <v>525.2145446110347</v>
+        <v>428.6257817893614</v>
       </c>
       <c r="I24" s="1">
-        <v>1135.840420216738</v>
+        <v>1152.047987053562</v>
       </c>
       <c r="J24" s="1">
-        <v>981.6672078215009</v>
+        <v>953.5086855859116</v>
       </c>
       <c r="M24" s="1">
-        <v>-69.477748581082</v>
+        <v>-56.5679115422818</v>
       </c>
       <c r="N24" s="1">
-        <v>1318.824420624038</v>
+        <v>1337.62770024418</v>
       </c>
       <c r="O24" s="1">
-        <v>-11.19958720008231</v>
+        <v>-12.8665532734574</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1666,22 +1666,37 @@
         <v>2188.675423278931</v>
       </c>
       <c r="C25" s="1">
-        <v>4305.25273948825</v>
+        <v>4478.454298053728</v>
       </c>
       <c r="E25" s="1">
-        <v>2800.834814066183</v>
+        <v>2870.710359476945</v>
+      </c>
+      <c r="F25" s="1">
+        <v>2548.580167873073</v>
       </c>
       <c r="G25" s="1">
         <v>2655.80261367371</v>
       </c>
       <c r="H25" s="1">
-        <v>3075.405680281792</v>
+        <v>2706.568163700891</v>
+      </c>
+      <c r="I25" s="1">
+        <v>4248.360125853538</v>
+      </c>
+      <c r="J25" s="1">
+        <v>5075.813131047985</v>
       </c>
       <c r="L25" s="1">
-        <v>9466.682363295535</v>
+        <v>9175.24102941136</v>
       </c>
       <c r="M25" s="1">
-        <v>26834.54839948826</v>
+        <v>28697.42564757257</v>
+      </c>
+      <c r="N25" s="1">
+        <v>6592.179418174151</v>
+      </c>
+      <c r="O25" s="1">
+        <v>10151.88035515367</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -1692,43 +1707,43 @@
         <v>7.419419360990209</v>
       </c>
       <c r="C26" s="1">
-        <v>7.215147649463025</v>
+        <v>7.052583482748062</v>
       </c>
       <c r="D26" s="1">
         <v>5.65038952827565</v>
       </c>
       <c r="E26" s="1">
-        <v>4.020145697000413</v>
+        <v>4.007218227624228</v>
       </c>
       <c r="F26" s="1">
-        <v>6.149402298107666</v>
+        <v>3.705106613912819</v>
       </c>
       <c r="G26" s="1">
         <v>6.288534026459814</v>
       </c>
       <c r="H26" s="1">
-        <v>3.688522410353321</v>
+        <v>4.045108112650627</v>
       </c>
       <c r="I26" s="1">
-        <v>7.856715333819499</v>
+        <v>8.517337209882863</v>
       </c>
       <c r="J26" s="1">
-        <v>10.21654381593144</v>
+        <v>5.953305394646039</v>
       </c>
       <c r="K26" s="1">
         <v>6.372278291567386</v>
       </c>
       <c r="L26" s="1">
-        <v>4.695430375867138</v>
+        <v>4.695138260647179</v>
       </c>
       <c r="M26" s="1">
-        <v>1.299942148020334</v>
+        <v>1.216000025869444</v>
       </c>
       <c r="N26" s="1">
-        <v>9.790901060764583</v>
+        <v>5.182457169014204</v>
       </c>
       <c r="O26" s="1">
-        <v>4.538153643142154</v>
+        <v>1.094313198366601</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -1739,43 +1754,43 @@
         <v>1.718372127067779</v>
       </c>
       <c r="C27" s="1">
-        <v>2.098843662134856</v>
+        <v>2.178329018880957</v>
       </c>
       <c r="D27" s="1">
         <v>2.439681979610895</v>
       </c>
       <c r="E27" s="1">
-        <v>2.564224532455869</v>
+        <v>2.660744676265191</v>
       </c>
       <c r="F27" s="1">
-        <v>2.398302647432268</v>
+        <v>2.680750367538407</v>
       </c>
       <c r="G27" s="1">
         <v>2.234781637208108</v>
       </c>
       <c r="H27" s="1">
-        <v>2.639140237255407</v>
+        <v>2.677727251987557</v>
       </c>
       <c r="I27" s="1">
-        <v>1.82736361360966</v>
+        <v>1.798355472942227</v>
       </c>
       <c r="J27" s="1">
-        <v>1.889102581220889</v>
+        <v>2.225104778630942</v>
       </c>
       <c r="K27" s="1">
         <v>2.112468685330254</v>
       </c>
       <c r="L27" s="1">
-        <v>2.302968985782354</v>
+        <v>2.303092181378486</v>
       </c>
       <c r="M27" s="1">
-        <v>2.630686002331122</v>
+        <v>2.553116883116883</v>
       </c>
       <c r="N27" s="1">
-        <v>1.930043619792031</v>
+        <v>2.311874518325805</v>
       </c>
       <c r="O27" s="1">
-        <v>1.852329705270882</v>
+        <v>2.695949059528298</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -1786,43 +1801,43 @@
         <v>0.5978301262785835</v>
       </c>
       <c r="C28" s="1">
-        <v>0.5763527960973782</v>
+        <v>0.5936107519931049</v>
       </c>
       <c r="D28" s="1">
         <v>0.4509317786205658</v>
       </c>
       <c r="E28" s="1">
-        <v>0.4465504843803964</v>
+        <v>0.4361932747412892</v>
       </c>
       <c r="F28" s="1">
-        <v>0.4998354963287089</v>
+        <v>0.404082871378024</v>
       </c>
       <c r="G28" s="1">
         <v>0.5345624685771744</v>
       </c>
       <c r="H28" s="1">
-        <v>0.4246867875620411</v>
+        <v>0.4307944522943483</v>
       </c>
       <c r="I28" s="1">
-        <v>0.6811334465496366</v>
+        <v>0.6868075708691034</v>
       </c>
       <c r="J28" s="1">
-        <v>0.6375600211274368</v>
+        <v>0.5436000301718038</v>
       </c>
       <c r="K28" s="1">
         <v>0.5277275276820796</v>
       </c>
       <c r="L28" s="1">
-        <v>0.5180455309132797</v>
+        <v>0.5064701484901095</v>
       </c>
       <c r="M28" s="1">
-        <v>0.2584100087972486</v>
+        <v>0.2517834860086648</v>
       </c>
       <c r="N28" s="1">
-        <v>0.6272059366541644</v>
+        <v>0.5250063568095488</v>
       </c>
       <c r="O28" s="1">
-        <v>0.3534625273649448</v>
+        <v>0.2335389761960927</v>
       </c>
     </row>
     <row r="29" spans="1:15">
@@ -1830,46 +1845,46 @@
         <v>41</v>
       </c>
       <c r="B29" s="1">
-        <v>0.4204923885493773</v>
+        <v>0.4204923885493774</v>
       </c>
       <c r="C29" s="1">
-        <v>0.4074734265316972</v>
+        <v>0.3804709234782608</v>
       </c>
       <c r="D29" s="1">
-        <v>0.2792912512321877</v>
+        <v>0.2792912512321876</v>
       </c>
       <c r="E29" s="1">
-        <v>0.3127200945338973</v>
+        <v>0.311432267676356</v>
       </c>
       <c r="F29" s="1">
-        <v>0.2206443765667457</v>
+        <v>0.2723555287068262</v>
       </c>
       <c r="G29" s="1">
         <v>0.3086453888134358</v>
       </c>
       <c r="H29" s="1">
-        <v>0.2933826349649917</v>
+        <v>0.2835007238577495</v>
       </c>
       <c r="I29" s="1">
-        <v>0.497339949847358</v>
+        <v>0.5149736792347086</v>
       </c>
       <c r="J29" s="1">
-        <v>0.3702031141391172</v>
+        <v>0.4880500931734866</v>
       </c>
       <c r="K29" s="1">
         <v>0.4236016977733972</v>
       </c>
       <c r="L29" s="1">
-        <v>0.4050394705976126</v>
+        <v>0.3665753206373106</v>
       </c>
       <c r="M29" s="1">
-        <v>0.2750303519762191</v>
+        <v>0.2790421585989319</v>
       </c>
       <c r="N29" s="1">
-        <v>0.3654080309932137</v>
+        <v>0.4486725338001074</v>
       </c>
       <c r="O29" s="1">
-        <v>0.2670525739892187</v>
+        <v>0.2595323570580946</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -1880,43 +1895,43 @@
         <v>0.3150352855910333</v>
       </c>
       <c r="C30" s="1">
-        <v>0.4548195590522354</v>
+        <v>0.4499945495020731</v>
       </c>
       <c r="D30" s="1">
         <v>0.4519833176807339</v>
       </c>
       <c r="E30" s="1">
-        <v>0.4132129894028879</v>
+        <v>0.4169214502135168</v>
       </c>
       <c r="F30" s="1">
-        <v>0.3545206919993179</v>
+        <v>0.3932779782606136</v>
       </c>
       <c r="G30" s="1">
         <v>0.3749644050627108</v>
       </c>
       <c r="H30" s="1">
-        <v>0.4214673970391138</v>
+        <v>0.4041797348712617</v>
       </c>
       <c r="I30" s="1">
-        <v>0.4396398711117732</v>
+        <v>0.4632828589024166</v>
       </c>
       <c r="J30" s="1">
-        <v>0.6361340052975927</v>
+        <v>0.6205618218628272</v>
       </c>
       <c r="K30" s="1">
         <v>0.4986521212789158</v>
       </c>
       <c r="L30" s="1">
-        <v>0.5013101094259895</v>
+        <v>0.4965451768283063</v>
       </c>
       <c r="M30" s="1">
-        <v>0.5699570591310766</v>
+        <v>0.5813663149811814</v>
       </c>
       <c r="N30" s="1">
-        <v>0.6403795793863907</v>
+        <v>0.6299105971525411</v>
       </c>
       <c r="O30" s="1">
-        <v>0.5592131650234979</v>
+        <v>0.5573718998200322</v>
       </c>
     </row>
   </sheetData>
@@ -2280,16 +2295,16 @@
         <v>14</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D2">
-        <v>33.11111111111111</v>
+        <v>42.57142857142857</v>
       </c>
       <c r="E2">
-        <v>29.97200339740941</v>
+        <v>23.41462999834043</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2297,7 +2312,7 @@
         <v>15</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2305,7 +2320,7 @@
         <v>16</v>
       </c>
       <c r="D4">
-        <v>1.104734664282503</v>
+        <v>1.81815508399859</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2313,7 +2328,7 @@
         <v>17</v>
       </c>
       <c r="D5">
-        <v>0.673469387755102</v>
+        <v>1.869565217391304</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2321,7 +2336,7 @@
         <v>18</v>
       </c>
       <c r="D6">
-        <v>0.09720228935138837</v>
+        <v>0.09280560508538917</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2329,16 +2344,16 @@
         <v>19</v>
       </c>
       <c r="B7">
-        <v>0.1431241655540721</v>
+        <v>0.2551775606260221</v>
       </c>
       <c r="C7">
-        <v>0.6382288108906814</v>
+        <v>0.6709242504878481</v>
       </c>
       <c r="D7">
-        <v>0.4356210929820622</v>
+        <v>0.4899919926557102</v>
       </c>
       <c r="E7">
-        <v>0.146635021099087</v>
+        <v>0.1236514203467491</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2346,16 +2361,16 @@
         <v>20</v>
       </c>
       <c r="B8">
-        <v>0.09438202247191012</v>
+        <v>0.09961798413164855</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D8">
-        <v>0.4328750515190259</v>
+        <v>0.2522416020374059</v>
       </c>
       <c r="E8">
-        <v>0.3471926716336435</v>
+        <v>0.1951238791599225</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2363,16 +2378,16 @@
         <v>21</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>16.15384615384615</v>
+        <v>17</v>
       </c>
       <c r="D9">
-        <v>5.593076059742726</v>
+        <v>7.137714647602406</v>
       </c>
       <c r="E9">
-        <v>4.515767812357327</v>
+        <v>4.441889525489206</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2380,16 +2395,16 @@
         <v>22</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="C10">
-        <v>0.5</v>
+        <v>0.4772727272727273</v>
       </c>
       <c r="D10">
-        <v>0.3418069584736252</v>
+        <v>0.4213975289483359</v>
       </c>
       <c r="E10">
-        <v>0.1889896587132623</v>
+        <v>0.07254261349672522</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2397,16 +2412,16 @@
         <v>23</v>
       </c>
       <c r="B11">
-        <v>0.3333333333333333</v>
+        <v>3.590361445783132</v>
       </c>
       <c r="C11">
-        <v>5.318181818181818</v>
+        <v>6.209302325581396</v>
       </c>
       <c r="D11">
-        <v>3.13486790986791</v>
+        <v>4.54444337152747</v>
       </c>
       <c r="E11">
-        <v>1.635121650747783</v>
+        <v>0.8346098631552457</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2414,16 +2429,16 @@
         <v>24</v>
       </c>
       <c r="B12">
-        <v>0.001129943502824859</v>
+        <v>0.01360544217687075</v>
       </c>
       <c r="C12">
-        <v>0.02292319749216301</v>
+        <v>0.02435020519835841</v>
       </c>
       <c r="D12">
-        <v>0.01246175267059631</v>
+        <v>0.01790333374527633</v>
       </c>
       <c r="E12">
-        <v>0.007024737058842856</v>
+        <v>0.003443102805232215</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2431,16 +2446,16 @@
         <v>25</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C13">
-        <v>420</v>
+        <v>374</v>
       </c>
       <c r="D13">
-        <v>140</v>
+        <v>171.8571428571429</v>
       </c>
       <c r="E13">
-        <v>157.6134512026179</v>
+        <v>129.4487527627699</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2448,16 +2463,16 @@
         <v>26</v>
       </c>
       <c r="B14">
-        <v>0.1428571428571428</v>
+        <v>0.1974248927038627</v>
       </c>
       <c r="C14">
-        <v>0.6363636363636364</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D14">
-        <v>0.396282051149256</v>
+        <v>0.4359343574885849</v>
       </c>
       <c r="E14">
-        <v>0.1517625719813498</v>
+        <v>0.1394096304476694</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2465,16 +2480,16 @@
         <v>27</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C15">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D15">
-        <v>11.55555555555556</v>
+        <v>18.42857142857143</v>
       </c>
       <c r="E15">
-        <v>9.202790773710513</v>
+        <v>4.499433070863892</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2482,16 +2497,16 @@
         <v>28</v>
       </c>
       <c r="B16">
-        <v>0.3333333333333333</v>
+        <v>3.590361445783132</v>
       </c>
       <c r="C16">
-        <v>5.318181818181818</v>
+        <v>6.209302325581396</v>
       </c>
       <c r="D16">
-        <v>3.13486790986791</v>
+        <v>4.54444337152747</v>
       </c>
       <c r="E16">
-        <v>1.635121650747783</v>
+        <v>0.8346098631552457</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2499,16 +2514,16 @@
         <v>29</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="C17">
-        <v>0.6666666666666666</v>
+        <v>0.3953488372093023</v>
       </c>
       <c r="D17">
-        <v>0.1941724941724942</v>
+        <v>0.2117809833157563</v>
       </c>
       <c r="E17">
-        <v>0.2158135786323346</v>
+        <v>0.1273820036767099</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2516,16 +2531,16 @@
         <v>30</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.59375</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="D18">
-        <v>0.6066282482949149</v>
+        <v>0.8214058313671309</v>
       </c>
       <c r="E18">
-        <v>0.3626741377682523</v>
+        <v>0.1099385764116706</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2533,7 +2548,7 @@
         <v>31</v>
       </c>
       <c r="D19">
-        <v>0.4456867555555555</v>
+        <v>0.44439168</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2541,7 +2556,7 @@
         <v>32</v>
       </c>
       <c r="D20">
-        <v>0.4725332971775925</v>
+        <v>0.4582677965335684</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -2549,7 +2564,7 @@
         <v>33</v>
       </c>
       <c r="D21">
-        <v>22.12387334887336</v>
+        <v>18.15289893252455</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2557,7 +2572,7 @@
         <v>34</v>
       </c>
       <c r="D22">
-        <v>1.065104358356147</v>
+        <v>1.116868060030329</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2565,7 +2580,7 @@
         <v>35</v>
       </c>
       <c r="D23">
-        <v>0.1152790912865179</v>
+        <v>0.03045753840748446</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2573,29 +2588,32 @@
         <v>36</v>
       </c>
       <c r="D24">
-        <v>981.6672078215009</v>
+        <v>953.5086855859116</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="D25">
+        <v>5075.813131047985</v>
+      </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B26">
-        <v>2.227566741573034</v>
+        <v>2.351143814281516</v>
       </c>
       <c r="C26">
-        <v>23.6016</v>
+        <v>15.7344</v>
       </c>
       <c r="D26">
-        <v>10.21654381593144</v>
+        <v>5.953305394646039</v>
       </c>
       <c r="E26">
-        <v>8.1943025588286</v>
+        <v>4.605235746380827</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -2603,16 +2621,16 @@
         <v>39</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="C27">
-        <v>2.78974358974359</v>
+        <v>3.084677419354839</v>
       </c>
       <c r="D27">
-        <v>1.889102581220889</v>
+        <v>2.225104778630942</v>
       </c>
       <c r="E27">
-        <v>0.6208717280236273</v>
+        <v>0.5173048910646578</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2620,16 +2638,16 @@
         <v>40</v>
       </c>
       <c r="B28">
-        <v>0.3333333333333333</v>
+        <v>0.3225806451612903</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
       <c r="D28">
-        <v>0.6375600211274368</v>
+        <v>0.5436000301718038</v>
       </c>
       <c r="E28">
-        <v>0.2772473847457438</v>
+        <v>0.2299827800369897</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2637,16 +2655,16 @@
         <v>41</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>0.2829861111111111</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>0.7441296821533542</v>
       </c>
       <c r="D29">
-        <v>0.3702031141391172</v>
+        <v>0.4880500931734866</v>
       </c>
       <c r="E29">
-        <v>0.3010238662866449</v>
+        <v>0.1495095599180252</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -2654,16 +2672,16 @@
         <v>42</v>
       </c>
       <c r="B30">
-        <v>0.3888888888888888</v>
+        <v>0.4551282051282051</v>
       </c>
       <c r="C30">
-        <v>0.8888888888888888</v>
+        <v>0.777470681649442</v>
       </c>
       <c r="D30">
-        <v>0.6361340052975927</v>
+        <v>0.6205618218628272</v>
       </c>
       <c r="E30">
-        <v>0.147389860775024</v>
+        <v>0.1017894429116019</v>
       </c>
     </row>
   </sheetData>
@@ -3123,16 +3141,16 @@
         <v>14</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="D2">
-        <v>31.75</v>
+        <v>31.05</v>
       </c>
       <c r="E2">
-        <v>15.37164597562668</v>
+        <v>18.17271306107044</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3148,7 +3166,7 @@
         <v>16</v>
       </c>
       <c r="D4">
-        <v>2.065491233036649</v>
+        <v>1.708605638335603</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3156,7 +3174,7 @@
         <v>17</v>
       </c>
       <c r="D5">
-        <v>1.518987341772152</v>
+        <v>0.9090909090909091</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3164,7 +3182,7 @@
         <v>18</v>
       </c>
       <c r="D6">
-        <v>0.08439159833434171</v>
+        <v>0.08633408069090355</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3172,16 +3190,16 @@
         <v>19</v>
       </c>
       <c r="B7">
-        <v>0.4010174113698343</v>
+        <v>0.3684748914515067</v>
       </c>
       <c r="C7">
-        <v>0.7951185191057556</v>
+        <v>0.7785779692350221</v>
       </c>
       <c r="D7">
-        <v>0.6711180765646594</v>
+        <v>0.6708329354415556</v>
       </c>
       <c r="E7">
-        <v>0.08369106959225626</v>
+        <v>0.08671541674819459</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3189,16 +3207,16 @@
         <v>20</v>
       </c>
       <c r="B8">
-        <v>0.1383116883116883</v>
+        <v>0.1230769230769231</v>
       </c>
       <c r="C8">
-        <v>0.3205128205128205</v>
+        <v>0.5</v>
       </c>
       <c r="D8">
-        <v>0.1989454264061394</v>
+        <v>0.1989330494816953</v>
       </c>
       <c r="E8">
-        <v>0.0524122232157288</v>
+        <v>0.07710186718922495</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3206,16 +3224,16 @@
         <v>21</v>
       </c>
       <c r="B9">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="C9">
-        <v>15.76666666666667</v>
+        <v>15.28</v>
       </c>
       <c r="D9">
-        <v>5.771720756780915</v>
+        <v>5.340287200776204</v>
       </c>
       <c r="E9">
-        <v>2.940076779987173</v>
+        <v>3.085895669509682</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3223,16 +3241,16 @@
         <v>22</v>
       </c>
       <c r="B10">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="C10">
         <v>0.5</v>
       </c>
       <c r="D10">
-        <v>0.4323537536231284</v>
+        <v>0.4274558979500145</v>
       </c>
       <c r="E10">
-        <v>0.07675977708625073</v>
+        <v>0.06035431622836104</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3240,16 +3258,16 @@
         <v>23</v>
       </c>
       <c r="B11">
-        <v>4.133333333333334</v>
+        <v>4</v>
       </c>
       <c r="C11">
-        <v>10.59090909090909</v>
+        <v>11.04347826086956</v>
       </c>
       <c r="D11">
-        <v>8.129635702364974</v>
+        <v>7.409201147017029</v>
       </c>
       <c r="E11">
-        <v>1.756322114967071</v>
+        <v>1.760389504354766</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3257,16 +3275,16 @@
         <v>24</v>
       </c>
       <c r="B12">
-        <v>0.01460541813898704</v>
+        <v>0.01360544217687075</v>
       </c>
       <c r="C12">
-        <v>0.03889190657251494</v>
+        <v>0.04015810276679842</v>
       </c>
       <c r="D12">
-        <v>0.03066563042305572</v>
+        <v>0.02793912701106306</v>
       </c>
       <c r="E12">
-        <v>0.006773370886641833</v>
+        <v>0.006973594993425205</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -3274,16 +3292,16 @@
         <v>25</v>
       </c>
       <c r="B13">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C13">
-        <v>473</v>
+        <v>573</v>
       </c>
       <c r="D13">
-        <v>110.5</v>
+        <v>109.1</v>
       </c>
       <c r="E13">
-        <v>106.6238716235722</v>
+        <v>128.0390174907633</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -3291,16 +3309,16 @@
         <v>26</v>
       </c>
       <c r="B14">
-        <v>0.2833333333333333</v>
+        <v>0.2440633245382586</v>
       </c>
       <c r="C14">
-        <v>0.7735849056603774</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="D14">
-        <v>0.6019236622210359</v>
+        <v>0.6077294548246454</v>
       </c>
       <c r="E14">
-        <v>0.1047350169707307</v>
+        <v>0.1156272827257425</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -3308,16 +3326,16 @@
         <v>27</v>
       </c>
       <c r="B15">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C15">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D15">
-        <v>35.25</v>
+        <v>33.15</v>
       </c>
       <c r="E15">
-        <v>7.126534922386896</v>
+        <v>9.139338050427941</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -3325,16 +3343,16 @@
         <v>28</v>
       </c>
       <c r="B16">
-        <v>4.133333333333334</v>
+        <v>4</v>
       </c>
       <c r="C16">
-        <v>10.59090909090909</v>
+        <v>11.04347826086956</v>
       </c>
       <c r="D16">
-        <v>8.129635702364974</v>
+        <v>7.409201147017029</v>
       </c>
       <c r="E16">
-        <v>1.756322114967071</v>
+        <v>1.760389504354766</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -3342,16 +3360,16 @@
         <v>29</v>
       </c>
       <c r="B17">
-        <v>0.3</v>
+        <v>0.2533333333333334</v>
       </c>
       <c r="C17">
-        <v>0.6363636363636364</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="D17">
-        <v>0.500401784995169</v>
+        <v>0.5297899182864054</v>
       </c>
       <c r="E17">
-        <v>0.1013699749612061</v>
+        <v>0.1154314817173385</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -3359,16 +3377,16 @@
         <v>30</v>
       </c>
       <c r="B18">
-        <v>0.1875</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>0.95</v>
+        <v>0.9733333333333334</v>
       </c>
       <c r="D18">
-        <v>0.7645054393052726</v>
+        <v>0.6941722936134518</v>
       </c>
       <c r="E18">
-        <v>0.1789611590227018</v>
+        <v>0.2428733390698706</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -3376,7 +3394,7 @@
         <v>31</v>
       </c>
       <c r="D19">
-        <v>0.2775189333333334</v>
+        <v>0.307217351111111</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -3384,7 +3402,7 @@
         <v>32</v>
       </c>
       <c r="D20">
-        <v>0.9046513456714799</v>
+        <v>0.8782611619551215</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -3392,7 +3410,7 @@
         <v>33</v>
       </c>
       <c r="D21">
-        <v>-47.15829891168121</v>
+        <v>-41.37827892481649</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -3400,7 +3418,7 @@
         <v>34</v>
       </c>
       <c r="D22">
-        <v>1.409151678737484</v>
+        <v>1.367944551751426</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -3408,7 +3426,7 @@
         <v>35</v>
       </c>
       <c r="D23">
-        <v>0.01701897657657301</v>
+        <v>0.02179874771322375</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -3421,7 +3439,7 @@
         <v>37</v>
       </c>
       <c r="D25">
-        <v>9466.682363295535</v>
+        <v>9175.24102941136</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -3429,16 +3447,16 @@
         <v>38</v>
       </c>
       <c r="B26">
-        <v>3.264377142857143</v>
+        <v>2.904812307692308</v>
       </c>
       <c r="C26">
-        <v>7.564615384615386</v>
+        <v>11.8008</v>
       </c>
       <c r="D26">
-        <v>4.695430375867138</v>
+        <v>4.695138260647179</v>
       </c>
       <c r="E26">
-        <v>1.237012327448345</v>
+        <v>1.819727428653212</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -3446,16 +3464,16 @@
         <v>39</v>
       </c>
       <c r="B27">
-        <v>1.858974358974359</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="C27">
-        <v>3.4</v>
+        <v>3.08</v>
       </c>
       <c r="D27">
-        <v>2.302968985782354</v>
+        <v>2.303092181378486</v>
       </c>
       <c r="E27">
-        <v>0.3411355326654932</v>
+        <v>0.2889577791932891</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -3463,16 +3481,16 @@
         <v>40</v>
       </c>
       <c r="B28">
-        <v>0.3823529411764706</v>
+        <v>0.24</v>
       </c>
       <c r="C28">
         <v>0.6666666666666666</v>
       </c>
       <c r="D28">
-        <v>0.5180455309132797</v>
+        <v>0.5064701484901095</v>
       </c>
       <c r="E28">
-        <v>0.1018673384465922</v>
+        <v>0.09489830219817723</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -3480,16 +3498,16 @@
         <v>41</v>
       </c>
       <c r="B29">
-        <v>0.08749999999999999</v>
+        <v>0</v>
       </c>
       <c r="C29">
-        <v>0.6533333333333333</v>
+        <v>0.5709503103185615</v>
       </c>
       <c r="D29">
-        <v>0.4050394705976126</v>
+        <v>0.3665753206373106</v>
       </c>
       <c r="E29">
-        <v>0.1260314478298417</v>
+        <v>0.1341123907453234</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -3497,16 +3515,16 @@
         <v>42</v>
       </c>
       <c r="B30">
-        <v>0.3844592202372089</v>
+        <v>0.3796470964264675</v>
       </c>
       <c r="C30">
-        <v>0.6567247476810893</v>
+        <v>0.7064137348228249</v>
       </c>
       <c r="D30">
-        <v>0.5013101094259895</v>
+        <v>0.4965451768283063</v>
       </c>
       <c r="E30">
-        <v>0.06261281197983808</v>
+        <v>0.08408514608724628</v>
       </c>
     </row>
   </sheetData>
@@ -3546,16 +3564,16 @@
         <v>14</v>
       </c>
       <c r="B2">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C2">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="D2">
-        <v>122.35</v>
+        <v>130.75</v>
       </c>
       <c r="E2">
-        <v>45.96006418620409</v>
+        <v>40.89361197057555</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3571,7 +3589,7 @@
         <v>16</v>
       </c>
       <c r="D4">
-        <v>2.662093758274733</v>
+        <v>3.197320894375371</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3579,7 +3597,7 @@
         <v>17</v>
       </c>
       <c r="D5">
-        <v>1.74757281553398</v>
+        <v>2.265560165975104</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3587,7 +3605,7 @@
         <v>18</v>
       </c>
       <c r="D6">
-        <v>0.1836165279004932</v>
+        <v>0.1952216730280285</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3595,16 +3613,16 @@
         <v>19</v>
       </c>
       <c r="B7">
-        <v>0.3577103508783078</v>
+        <v>0.3819776140405073</v>
       </c>
       <c r="C7">
-        <v>0.7984109701909778</v>
+        <v>0.8495405610310842</v>
       </c>
       <c r="D7">
-        <v>0.5981241606149347</v>
+        <v>0.5921639808246307</v>
       </c>
       <c r="E7">
-        <v>0.1423344281391562</v>
+        <v>0.138508199742957</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3612,16 +3630,16 @@
         <v>20</v>
       </c>
       <c r="B8">
-        <v>0.03098106712564544</v>
+        <v>0.03132571824160609</v>
       </c>
       <c r="C8">
-        <v>0.09217786432976306</v>
+        <v>0.0831899024670109</v>
       </c>
       <c r="D8">
-        <v>0.0550785602679621</v>
+        <v>0.05152193181265015</v>
       </c>
       <c r="E8">
-        <v>0.0144378147448432</v>
+        <v>0.0104979181025874</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3629,16 +3647,16 @@
         <v>21</v>
       </c>
       <c r="B9">
-        <v>2.571428571428572</v>
+        <v>2.153846153846154</v>
       </c>
       <c r="C9">
-        <v>10.48587570621469</v>
+        <v>10.7431693989071</v>
       </c>
       <c r="D9">
-        <v>6.513498730929191</v>
+        <v>6.722860901813379</v>
       </c>
       <c r="E9">
-        <v>2.625498021239119</v>
+        <v>2.535953830727037</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3646,16 +3664,16 @@
         <v>22</v>
       </c>
       <c r="B10">
-        <v>0.3170731707317073</v>
+        <v>0.3267326732673267</v>
       </c>
       <c r="C10">
         <v>0.5</v>
       </c>
       <c r="D10">
-        <v>0.4406635806110631</v>
+        <v>0.4507096158243193</v>
       </c>
       <c r="E10">
-        <v>0.05219993780472541</v>
+        <v>0.05073322000071973</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3663,16 +3681,16 @@
         <v>23</v>
       </c>
       <c r="B11">
-        <v>2.261111111111111</v>
+        <v>2.505681818181818</v>
       </c>
       <c r="C11">
-        <v>7.542857142857143</v>
+        <v>7.461538461538462</v>
       </c>
       <c r="D11">
-        <v>4.734030882570691</v>
+        <v>4.581134854190188</v>
       </c>
       <c r="E11">
-        <v>1.513886310637399</v>
+        <v>1.363901085619507</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3680,16 +3698,16 @@
         <v>24</v>
       </c>
       <c r="B12">
-        <v>0.01916195856873823</v>
+        <v>0.02053837555886736</v>
       </c>
       <c r="C12">
-        <v>0.03308270676691729</v>
+        <v>0.03286927677539327</v>
       </c>
       <c r="D12">
-        <v>0.02662218687217783</v>
+        <v>0.02707406345608526</v>
       </c>
       <c r="E12">
-        <v>0.00350586960216555</v>
+        <v>0.00293575193316893</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -3697,16 +3715,16 @@
         <v>25</v>
       </c>
       <c r="B13">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="C13">
-        <v>928</v>
+        <v>983</v>
       </c>
       <c r="D13">
-        <v>451.25</v>
+        <v>486.65</v>
       </c>
       <c r="E13">
-        <v>299.7592158716726</v>
+        <v>285.3668297122144</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -3714,16 +3732,16 @@
         <v>26</v>
       </c>
       <c r="B14">
-        <v>0.1883387320684868</v>
+        <v>0.2014618547281864</v>
       </c>
       <c r="C14">
-        <v>0.7039848197343453</v>
+        <v>0.776</v>
       </c>
       <c r="D14">
-        <v>0.4395020163667181</v>
+        <v>0.4230606336338587</v>
       </c>
       <c r="E14">
-        <v>0.1746525997297597</v>
+        <v>0.1689654588366711</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -3731,16 +3749,16 @@
         <v>27</v>
       </c>
       <c r="B15">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C15">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D15">
-        <v>23.75</v>
+        <v>22.65</v>
       </c>
       <c r="E15">
-        <v>7.777371021109897</v>
+        <v>6.215102573570287</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -3748,16 +3766,16 @@
         <v>28</v>
       </c>
       <c r="B16">
-        <v>2.261111111111111</v>
+        <v>2.505681818181818</v>
       </c>
       <c r="C16">
-        <v>7.542857142857143</v>
+        <v>7.461538461538462</v>
       </c>
       <c r="D16">
-        <v>4.734030882570691</v>
+        <v>4.581134854190188</v>
       </c>
       <c r="E16">
-        <v>1.513886310637399</v>
+        <v>1.363901085619507</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -3765,16 +3783,16 @@
         <v>29</v>
       </c>
       <c r="B17">
-        <v>0.03888888888888889</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="C17">
-        <v>0.7592592592592593</v>
+        <v>0.8974358974358975</v>
       </c>
       <c r="D17">
-        <v>0.3797361604445499</v>
+        <v>0.3475855124553246</v>
       </c>
       <c r="E17">
-        <v>0.2571242349240737</v>
+        <v>0.2562282672288813</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -3782,16 +3800,16 @@
         <v>30</v>
       </c>
       <c r="B18">
-        <v>0.3690476190476191</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C18">
-        <v>0.8722222222222222</v>
+        <v>0.8806818181818182</v>
       </c>
       <c r="D18">
-        <v>0.6881039557278622</v>
+        <v>0.707659629422739</v>
       </c>
       <c r="E18">
-        <v>0.1638909976579524</v>
+        <v>0.1577986439686228</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -3799,7 +3817,7 @@
         <v>31</v>
       </c>
       <c r="D19">
-        <v>0.1662690133333334</v>
+        <v>0.1993355377777778</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -3807,7 +3825,7 @@
         <v>32</v>
       </c>
       <c r="D20">
-        <v>0.9809377895283936</v>
+        <v>0.9794448466770617</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -3815,7 +3833,7 @@
         <v>33</v>
       </c>
       <c r="D21">
-        <v>35.58935696716998</v>
+        <v>42.83452095246378</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -3828,7 +3846,7 @@
         <v>35</v>
       </c>
       <c r="D23">
-        <v>0.001726809119255389</v>
+        <v>0.001814941994577366</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -3836,7 +3854,7 @@
         <v>36</v>
       </c>
       <c r="D24">
-        <v>-69.477748581082</v>
+        <v>-56.5679115422818</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -3844,7 +3862,7 @@
         <v>37</v>
       </c>
       <c r="D25">
-        <v>26834.54839948826</v>
+        <v>28697.42564757257</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -3852,16 +3870,16 @@
         <v>38</v>
       </c>
       <c r="B26">
-        <v>0.7312027538726334</v>
+        <v>0.7393370716510904</v>
       </c>
       <c r="C26">
-        <v>2.175545082765336</v>
+        <v>1.963414802065405</v>
       </c>
       <c r="D26">
-        <v>1.299942148020334</v>
+        <v>1.216000025869444</v>
       </c>
       <c r="E26">
-        <v>0.3407555284818913</v>
+        <v>0.2477676638900267</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -3869,16 +3887,16 @@
         <v>39</v>
       </c>
       <c r="B27">
-        <v>2.559671592775041</v>
+        <v>2.553116883116883</v>
       </c>
       <c r="C27">
-        <v>2.746334031613026</v>
+        <v>2.553116883116883</v>
       </c>
       <c r="D27">
-        <v>2.630686002331122</v>
+        <v>2.553116883116883</v>
       </c>
       <c r="E27">
-        <v>0.07279289875539982</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -3886,16 +3904,16 @@
         <v>40</v>
       </c>
       <c r="B28">
-        <v>0.1704545454545454</v>
+        <v>0.1588785046728972</v>
       </c>
       <c r="C28">
-        <v>0.4782608695652174</v>
+        <v>0.3855421686746988</v>
       </c>
       <c r="D28">
-        <v>0.2584100087972486</v>
+        <v>0.2517834860086648</v>
       </c>
       <c r="E28">
-        <v>0.07051523108049142</v>
+        <v>0.05080724407324103</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -3903,16 +3921,16 @@
         <v>41</v>
       </c>
       <c r="B29">
-        <v>0.1521486643437863</v>
+        <v>0.1776629473812573</v>
       </c>
       <c r="C29">
-        <v>0.392940537683276</v>
+        <v>0.3721346835256774</v>
       </c>
       <c r="D29">
-        <v>0.2750303519762191</v>
+        <v>0.2790421585989319</v>
       </c>
       <c r="E29">
-        <v>0.06356182629469481</v>
+        <v>0.04307702993346795</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -3920,16 +3938,16 @@
         <v>42</v>
       </c>
       <c r="B30">
-        <v>0.3272046169122192</v>
+        <v>0.2135906261640884</v>
       </c>
       <c r="C30">
-        <v>0.8187946974163651</v>
+        <v>0.802954872005407</v>
       </c>
       <c r="D30">
-        <v>0.5699570591310766</v>
+        <v>0.5813663149811814</v>
       </c>
       <c r="E30">
-        <v>0.1595580259061365</v>
+        <v>0.1581936273879334</v>
       </c>
     </row>
   </sheetData>
@@ -3969,16 +3987,16 @@
         <v>14</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D2">
-        <v>41.77777777777778</v>
+        <v>56.71428571428572</v>
       </c>
       <c r="E2">
-        <v>40.28172394462056</v>
+        <v>34.76744900340089</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3986,7 +4004,7 @@
         <v>15</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3994,7 +4012,7 @@
         <v>16</v>
       </c>
       <c r="D4">
-        <v>1.037139766788879</v>
+        <v>1.631246678717729</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4002,7 +4020,7 @@
         <v>17</v>
       </c>
       <c r="D5">
-        <v>0.582089552238806</v>
+        <v>1.428571428571429</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -4010,7 +4028,7 @@
         <v>18</v>
       </c>
       <c r="D6">
-        <v>0.1043193129792317</v>
+        <v>0.1000802768992263</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -4018,16 +4036,16 @@
         <v>19</v>
       </c>
       <c r="B7">
-        <v>0.1431241655540721</v>
+        <v>0.286357049309482</v>
       </c>
       <c r="C7">
-        <v>0.6382288108906814</v>
+        <v>0.6709242504878481</v>
       </c>
       <c r="D7">
-        <v>0.4414861646694195</v>
+        <v>0.5035982550813104</v>
       </c>
       <c r="E7">
-        <v>0.1409079453962265</v>
+        <v>0.1138388676180361</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -4035,16 +4053,16 @@
         <v>20</v>
       </c>
       <c r="B8">
-        <v>0.07706794147472114</v>
+        <v>0.07471264367816093</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D8">
-        <v>0.4148405642314327</v>
+        <v>0.219580755923929</v>
       </c>
       <c r="E8">
-        <v>0.3578143929139535</v>
+        <v>0.1913047989325312</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -4052,16 +4070,16 @@
         <v>21</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>14.97142857142857</v>
+        <v>14.75</v>
       </c>
       <c r="D9">
-        <v>5.708354545642681</v>
+        <v>7.354525763793889</v>
       </c>
       <c r="E9">
-        <v>4.345611540177371</v>
+        <v>3.72758389653787</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -4069,16 +4087,16 @@
         <v>22</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="C10">
-        <v>0.4857142857142857</v>
+        <v>0.4883720930232558</v>
       </c>
       <c r="D10">
-        <v>0.3417607711393022</v>
+        <v>0.4340251000519469</v>
       </c>
       <c r="E10">
-        <v>0.1878034633714752</v>
+        <v>0.07725928950816539</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -4086,16 +4104,16 @@
         <v>23</v>
       </c>
       <c r="B11">
-        <v>0.3333333333333333</v>
+        <v>3.401709401709402</v>
       </c>
       <c r="C11">
-        <v>5.487179487179487</v>
+        <v>6.433333333333334</v>
       </c>
       <c r="D11">
-        <v>3.144801547061435</v>
+        <v>4.708702729004541</v>
       </c>
       <c r="E11">
-        <v>1.667521364853581</v>
+        <v>1.057372277238483</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -4103,16 +4121,16 @@
         <v>24</v>
       </c>
       <c r="B12">
-        <v>0.001129943502824859</v>
+        <v>0.01360544217687075</v>
       </c>
       <c r="C12">
-        <v>0.0235042735042735</v>
+        <v>0.02703081232492997</v>
       </c>
       <c r="D12">
-        <v>0.01318917844494743</v>
+        <v>0.01974909944001384</v>
       </c>
       <c r="E12">
-        <v>0.007588899422384525</v>
+        <v>0.004448790229859893</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -4120,16 +4138,16 @@
         <v>25</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C13">
-        <v>532</v>
+        <v>507</v>
       </c>
       <c r="D13">
-        <v>188.3333333333333</v>
+        <v>244.7142857142857</v>
       </c>
       <c r="E13">
-        <v>215.9418646045479</v>
+        <v>182.5484000678914</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -4137,16 +4155,16 @@
         <v>26</v>
       </c>
       <c r="B14">
-        <v>0.1428571428571428</v>
+        <v>0.2060555088309504</v>
       </c>
       <c r="C14">
-        <v>0.6363636363636364</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D14">
-        <v>0.3903270385941064</v>
+        <v>0.4280215156020052</v>
       </c>
       <c r="E14">
-        <v>0.1523391610425382</v>
+        <v>0.1406849498516568</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -4154,16 +4172,16 @@
         <v>27</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C15">
         <v>36</v>
       </c>
       <c r="D15">
-        <v>16.44444444444444</v>
+        <v>25.71428571428572</v>
       </c>
       <c r="E15">
-        <v>13.22548979232579</v>
+        <v>8.327480938165527</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -4171,16 +4189,16 @@
         <v>28</v>
       </c>
       <c r="B16">
-        <v>0.3333333333333333</v>
+        <v>3.401709401709402</v>
       </c>
       <c r="C16">
-        <v>5.487179487179487</v>
+        <v>6.433333333333334</v>
       </c>
       <c r="D16">
-        <v>3.144801547061435</v>
+        <v>4.708702729004541</v>
       </c>
       <c r="E16">
-        <v>1.667521364853581</v>
+        <v>1.057372277238483</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -4188,16 +4206,16 @@
         <v>29</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.1196581196581197</v>
       </c>
       <c r="C17">
-        <v>0.6666666666666666</v>
+        <v>0.3166666666666667</v>
       </c>
       <c r="D17">
-        <v>0.2233491764565211</v>
+        <v>0.2408730054335389</v>
       </c>
       <c r="E17">
-        <v>0.2031951218695652</v>
+        <v>0.06906731975985685</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -4205,16 +4223,16 @@
         <v>30</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="D18">
-        <v>0.6141702825318645</v>
+        <v>0.8007216288423539</v>
       </c>
       <c r="E18">
-        <v>0.3664026594515622</v>
+        <v>0.08364456754724606</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -4222,7 +4240,7 @@
         <v>31</v>
       </c>
       <c r="D19">
-        <v>0.4139865600000001</v>
+        <v>0.4022880711111111</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -4230,7 +4248,7 @@
         <v>32</v>
       </c>
       <c r="D20">
-        <v>0.5657630443133799</v>
+        <v>0.5680867014665673</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -4238,7 +4256,7 @@
         <v>33</v>
       </c>
       <c r="D21">
-        <v>23.07197698723123</v>
+        <v>18.52076124352544</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -4246,7 +4264,7 @@
         <v>34</v>
       </c>
       <c r="D22">
-        <v>1.019565091681911</v>
+        <v>1.065421614206192</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -4254,7 +4272,7 @@
         <v>35</v>
       </c>
       <c r="D23">
-        <v>0.09311552845823895</v>
+        <v>0.0407303404990822</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -4262,29 +4280,32 @@
         <v>36</v>
       </c>
       <c r="D24">
-        <v>1318.824420624038</v>
+        <v>1337.62770024418</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="D25">
+        <v>6592.179418174151</v>
+      </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B26">
-        <v>1.818926727509778</v>
+        <v>1.763337931034483</v>
       </c>
       <c r="C26">
-        <v>23.6016</v>
+        <v>15.7344</v>
       </c>
       <c r="D26">
-        <v>9.790901060764583</v>
+        <v>5.182457169014204</v>
       </c>
       <c r="E26">
-        <v>8.444992175797967</v>
+        <v>4.515099342486029</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -4292,16 +4313,16 @@
         <v>39</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="C27">
-        <v>2.774680603948897</v>
+        <v>3.042780748663102</v>
       </c>
       <c r="D27">
-        <v>1.930043619792031</v>
+        <v>2.311874518325805</v>
       </c>
       <c r="E27">
-        <v>0.6376768555664342</v>
+        <v>0.4782132552376008</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -4309,16 +4330,16 @@
         <v>40</v>
       </c>
       <c r="B28">
-        <v>0.3146067415730337</v>
+        <v>0.3275862068965517</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
       <c r="D28">
-        <v>0.6272059366541644</v>
+        <v>0.5250063568095488</v>
       </c>
       <c r="E28">
-        <v>0.2817052854601941</v>
+        <v>0.2272426699187726</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -4326,16 +4347,16 @@
         <v>41</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>0.3121766431306477</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>0.6046542224521798</v>
       </c>
       <c r="D29">
-        <v>0.3654080309932137</v>
+        <v>0.4486725338001074</v>
       </c>
       <c r="E29">
-        <v>0.2972839276451336</v>
+        <v>0.1276731305403665</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -4343,16 +4364,16 @@
         <v>42</v>
       </c>
       <c r="B30">
-        <v>0.3888888888888888</v>
+        <v>0.4551282051282051</v>
       </c>
       <c r="C30">
-        <v>0.8888888888888888</v>
+        <v>0.7649430185664789</v>
       </c>
       <c r="D30">
-        <v>0.6403795793863907</v>
+        <v>0.6299105971525411</v>
       </c>
       <c r="E30">
-        <v>0.147231295993331</v>
+        <v>0.09649474566773553</v>
       </c>
     </row>
   </sheetData>
@@ -4392,16 +4413,16 @@
         <v>14</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D2">
-        <v>100.8888888888889</v>
+        <v>136</v>
       </c>
       <c r="E2">
-        <v>87.24097462959126</v>
+        <v>63.34486110626045</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4409,7 +4430,7 @@
         <v>15</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4417,7 +4438,7 @@
         <v>16</v>
       </c>
       <c r="D4">
-        <v>1.156439268557511</v>
+        <v>2.146977633621474</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4425,7 +4446,7 @@
         <v>17</v>
       </c>
       <c r="D5">
-        <v>1.028776978417266</v>
+        <v>2.047619047619047</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -4433,7 +4454,7 @@
         <v>18</v>
       </c>
       <c r="D6">
-        <v>0.1179350684533611</v>
+        <v>0.1137605669732899</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -4441,16 +4462,16 @@
         <v>19</v>
       </c>
       <c r="B7">
-        <v>0.1431241655540721</v>
+        <v>0.3228351804452707</v>
       </c>
       <c r="C7">
-        <v>0.8864699979931768</v>
+        <v>0.9000979394604565</v>
       </c>
       <c r="D7">
-        <v>0.5613541440316769</v>
+        <v>0.5717481397008716</v>
       </c>
       <c r="E7">
-        <v>0.237132124050853</v>
+        <v>0.1862130697303826</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -4458,16 +4479,16 @@
         <v>20</v>
       </c>
       <c r="B8">
-        <v>0.02978927203065134</v>
+        <v>0.03144654088050314</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0.07758730158730159</v>
       </c>
       <c r="D8">
-        <v>0.1922816098545079</v>
+        <v>0.04636605985893332</v>
       </c>
       <c r="E8">
-        <v>0.2988985226366243</v>
+        <v>0.01342867236872839</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -4478,13 +4499,13 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="C9">
-        <v>10.26027397260274</v>
+        <v>9.853881278538813</v>
       </c>
       <c r="D9">
-        <v>4.939296566069782</v>
+        <v>6.25249633492392</v>
       </c>
       <c r="E9">
-        <v>3.83408798239135</v>
+        <v>3.20563873172673</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -4492,16 +4513,16 @@
         <v>22</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C10">
-        <v>0.490990990990991</v>
+        <v>0.4841269841269841</v>
       </c>
       <c r="D10">
-        <v>0.3487576662243947</v>
+        <v>0.4319271004812937</v>
       </c>
       <c r="E10">
-        <v>0.1874390228316817</v>
+        <v>0.06518684198060115</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -4509,16 +4530,16 @@
         <v>23</v>
       </c>
       <c r="B11">
-        <v>0.3333333333333333</v>
+        <v>1.616438356164384</v>
       </c>
       <c r="C11">
-        <v>4.496503496503497</v>
+        <v>4.952830188679245</v>
       </c>
       <c r="D11">
-        <v>3.065991972580402</v>
+        <v>3.674811480273174</v>
       </c>
       <c r="E11">
-        <v>1.349094715260558</v>
+        <v>1.143406125220431</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -4526,16 +4547,16 @@
         <v>24</v>
       </c>
       <c r="B12">
-        <v>0.001129943502824859</v>
+        <v>0.0153420523138833</v>
       </c>
       <c r="C12">
-        <v>0.02929907595221997</v>
+        <v>0.02788665134928144</v>
       </c>
       <c r="D12">
-        <v>0.01867212155525388</v>
+        <v>0.02349108275105936</v>
       </c>
       <c r="E12">
-        <v>0.00887694571155046</v>
+        <v>0.004260406325258013</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -4543,16 +4564,16 @@
         <v>25</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C13">
-        <v>1087</v>
+        <v>1079</v>
       </c>
       <c r="D13">
-        <v>403.1111111111111</v>
+        <v>512.1428571428571</v>
       </c>
       <c r="E13">
-        <v>425.2678749119181</v>
+        <v>353.2681816457085</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -4560,16 +4581,16 @@
         <v>26</v>
       </c>
       <c r="B14">
-        <v>0.1396913335971508</v>
+        <v>0.1409235668789809</v>
       </c>
       <c r="C14">
-        <v>0.8787878787878788</v>
+        <v>0.8840579710144928</v>
       </c>
       <c r="D14">
-        <v>0.4542378701460327</v>
+        <v>0.4243718434395322</v>
       </c>
       <c r="E14">
-        <v>0.2808234268913865</v>
+        <v>0.2359688953452808</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -4577,16 +4598,16 @@
         <v>27</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C15">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="D15">
-        <v>14</v>
+        <v>23.14285714285714</v>
       </c>
       <c r="E15">
-        <v>8.055363982396381</v>
+        <v>7.317856271351827</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -4594,16 +4615,16 @@
         <v>28</v>
       </c>
       <c r="B16">
-        <v>0.3333333333333333</v>
+        <v>1.616438356164384</v>
       </c>
       <c r="C16">
-        <v>4.496503496503497</v>
+        <v>4.952830188679245</v>
       </c>
       <c r="D16">
-        <v>3.065991972580402</v>
+        <v>3.674811480273174</v>
       </c>
       <c r="E16">
-        <v>1.349094715260558</v>
+        <v>1.143406125220431</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -4611,16 +4632,16 @@
         <v>29</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.0182648401826484</v>
       </c>
       <c r="C17">
-        <v>0.8571428571428571</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="D17">
-        <v>0.3363812878809434</v>
+        <v>0.3649966939139813</v>
       </c>
       <c r="E17">
-        <v>0.2766859836953182</v>
+        <v>0.249661811382672</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -4628,16 +4649,16 @@
         <v>30</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>0.8812785388127854</v>
       </c>
       <c r="D18">
-        <v>0.5240096491525509</v>
+        <v>0.6113030568846163</v>
       </c>
       <c r="E18">
-        <v>0.3623315622065504</v>
+        <v>0.214581651084551</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -4645,7 +4666,7 @@
         <v>31</v>
       </c>
       <c r="D19">
-        <v>0.2541890844444444</v>
+        <v>0.2235867022222222</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -4653,7 +4674,7 @@
         <v>32</v>
       </c>
       <c r="D20">
-        <v>0.1362078231984272</v>
+        <v>0.1425380426185796</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -4661,7 +4682,7 @@
         <v>33</v>
       </c>
       <c r="D21">
-        <v>16.85974134140442</v>
+        <v>18.04379398255523</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -4674,7 +4695,7 @@
         <v>35</v>
       </c>
       <c r="D23">
-        <v>0.01248587344255143</v>
+        <v>0.004472668388316759</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -4682,29 +4703,32 @@
         <v>36</v>
       </c>
       <c r="D24">
-        <v>-11.19958720008231</v>
+        <v>-12.8665532734574</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="D25">
+        <v>10151.88035515367</v>
+      </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B26">
-        <v>0.7030744827586207</v>
+        <v>0.7421886792452831</v>
       </c>
       <c r="C26">
-        <v>23.6016</v>
+        <v>1.831184457142857</v>
       </c>
       <c r="D26">
-        <v>4.538153643142154</v>
+        <v>1.094313198366601</v>
       </c>
       <c r="E26">
-        <v>7.054483371860552</v>
+        <v>0.31693815377778</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -4712,16 +4736,16 @@
         <v>39</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>2.695949059528298</v>
       </c>
       <c r="C27">
-        <v>2.704659410541764</v>
+        <v>2.695949059528298</v>
       </c>
       <c r="D27">
-        <v>1.852329705270882</v>
+        <v>2.695949059528298</v>
       </c>
       <c r="E27">
-        <v>0.8523297052708818</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -4729,16 +4753,16 @@
         <v>40</v>
       </c>
       <c r="B28">
-        <v>0.1319444444444444</v>
+        <v>0.1714285714285714</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>0.344</v>
       </c>
       <c r="D28">
-        <v>0.3534625273649448</v>
+        <v>0.2335389761960927</v>
       </c>
       <c r="E28">
-        <v>0.2493457374663244</v>
+        <v>0.05395540666548243</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -4746,16 +4770,16 @@
         <v>41</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>0.3674871302353509</v>
       </c>
       <c r="D29">
-        <v>0.2670525739892187</v>
+        <v>0.2595323570580946</v>
       </c>
       <c r="E29">
-        <v>0.289256278565001</v>
+        <v>0.06574772361970756</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -4763,16 +4787,16 @@
         <v>42</v>
       </c>
       <c r="B30">
-        <v>0.1666666666666667</v>
+        <v>0.13003663003663</v>
       </c>
       <c r="C30">
-        <v>0.8888888888888888</v>
+        <v>0.8686832304360413</v>
       </c>
       <c r="D30">
-        <v>0.5592131650234979</v>
+        <v>0.5573718998200322</v>
       </c>
       <c r="E30">
-        <v>0.2518814815206237</v>
+        <v>0.2223403364439721</v>
       </c>
     </row>
   </sheetData>
@@ -5178,7 +5202,7 @@
         <v>0.9047619047619047</v>
       </c>
       <c r="D29">
-        <v>0.4204923885493773</v>
+        <v>0.4204923885493774</v>
       </c>
       <c r="E29">
         <v>0.2422589919896306</v>
@@ -5189,7 +5213,7 @@
         <v>42</v>
       </c>
       <c r="B30">
-        <v>0.09658678286129267</v>
+        <v>0.09658678286129266</v>
       </c>
       <c r="C30">
         <v>0.5020424836601307</v>
@@ -5238,16 +5262,16 @@
         <v>14</v>
       </c>
       <c r="B2">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2">
         <v>14.9</v>
       </c>
       <c r="E2">
-        <v>4.437341546466757</v>
+        <v>5.539855593785816</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -5263,7 +5287,7 @@
         <v>16</v>
       </c>
       <c r="D4">
-        <v>3.357866381023601</v>
+        <v>2.689600793333616</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5271,7 +5295,7 @@
         <v>17</v>
       </c>
       <c r="D5">
-        <v>3.052631578947369</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -5279,7 +5303,7 @@
         <v>18</v>
       </c>
       <c r="D6">
-        <v>0.06325977401591093</v>
+        <v>0.06580461594350939</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -5287,16 +5311,16 @@
         <v>19</v>
       </c>
       <c r="B7">
-        <v>0.3101789647714615</v>
+        <v>0.2783313573376209</v>
       </c>
       <c r="C7">
-        <v>0.8270256364803722</v>
+        <v>0.775645688474965</v>
       </c>
       <c r="D7">
-        <v>0.6533403373615391</v>
+        <v>0.6663154061400369</v>
       </c>
       <c r="E7">
-        <v>0.1130325734742931</v>
+        <v>0.1069719022950335</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -5304,16 +5328,16 @@
         <v>20</v>
       </c>
       <c r="B8">
-        <v>0.1648351648351648</v>
+        <v>0.1619047619047619</v>
       </c>
       <c r="C8">
-        <v>0.7645502645502645</v>
+        <v>0.7563218390804598</v>
       </c>
       <c r="D8">
-        <v>0.3057058694945691</v>
+        <v>0.2988180243181845</v>
       </c>
       <c r="E8">
-        <v>0.1293671005399301</v>
+        <v>0.1276937012582852</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -5321,16 +5345,16 @@
         <v>21</v>
       </c>
       <c r="B9">
-        <v>1.818181818181818</v>
+        <v>1.5</v>
       </c>
       <c r="C9">
-        <v>20.64285714285714</v>
+        <v>21.93333333333333</v>
       </c>
       <c r="D9">
-        <v>4.559020183033342</v>
+        <v>4.442873310040492</v>
       </c>
       <c r="E9">
-        <v>3.905695378632435</v>
+        <v>4.248749586987512</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -5338,16 +5362,16 @@
         <v>22</v>
       </c>
       <c r="B10">
-        <v>0.1428571428571428</v>
+        <v>0.2</v>
       </c>
       <c r="C10">
         <v>0.5</v>
       </c>
       <c r="D10">
-        <v>0.3759795796308953</v>
+        <v>0.3950416405060368</v>
       </c>
       <c r="E10">
-        <v>0.09920963962853319</v>
+        <v>0.09352748089199128</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -5355,16 +5379,16 @@
         <v>23</v>
       </c>
       <c r="B11">
-        <v>2.75</v>
+        <v>3.8</v>
       </c>
       <c r="C11">
-        <v>12.11111111111111</v>
+        <v>9.421052631578947</v>
       </c>
       <c r="D11">
-        <v>6.879202409432674</v>
+        <v>6.562251606322815</v>
       </c>
       <c r="E11">
-        <v>2.256126078541975</v>
+        <v>1.612792440507103</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -5372,16 +5396,16 @@
         <v>24</v>
       </c>
       <c r="B12">
-        <v>0.009615384615384616</v>
+        <v>0.01342756183745583</v>
       </c>
       <c r="C12">
-        <v>0.04325396825396825</v>
+        <v>0.03376721373325788</v>
       </c>
       <c r="D12">
-        <v>0.02434300648611413</v>
+        <v>0.02324362171429273</v>
       </c>
       <c r="E12">
-        <v>0.008071324411567</v>
+        <v>0.005938584957224381</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -5389,16 +5413,16 @@
         <v>25</v>
       </c>
       <c r="B13">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C13">
-        <v>289</v>
+        <v>329</v>
       </c>
       <c r="D13">
-        <v>41</v>
+        <v>42.65</v>
       </c>
       <c r="E13">
-        <v>58.79710877245581</v>
+        <v>67.87508747692337</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -5406,16 +5430,16 @@
         <v>26</v>
       </c>
       <c r="B14">
-        <v>0.2522639068564036</v>
+        <v>0.221301775147929</v>
       </c>
       <c r="C14">
-        <v>0.8016528925619835</v>
+        <v>0.7627118644067796</v>
       </c>
       <c r="D14">
-        <v>0.6252850183136528</v>
+        <v>0.6390357456097291</v>
       </c>
       <c r="E14">
-        <v>0.1158751546626595</v>
+        <v>0.1155047428212162</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -5423,16 +5447,16 @@
         <v>27</v>
       </c>
       <c r="B15">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C15">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D15">
-        <v>23</v>
+        <v>21.4</v>
       </c>
       <c r="E15">
-        <v>10.2810505299799</v>
+        <v>8.912911982062878</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -5440,16 +5464,16 @@
         <v>28</v>
       </c>
       <c r="B16">
-        <v>2.75</v>
+        <v>3.8</v>
       </c>
       <c r="C16">
-        <v>12.11111111111111</v>
+        <v>9.421052631578947</v>
       </c>
       <c r="D16">
-        <v>6.879202409432674</v>
+        <v>6.562251606322815</v>
       </c>
       <c r="E16">
-        <v>2.256126078541975</v>
+        <v>1.612792440507103</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -5457,16 +5481,16 @@
         <v>29</v>
       </c>
       <c r="B17">
-        <v>0.1071428571428571</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="C17">
-        <v>0.8333333333333334</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="D17">
-        <v>0.608733101693628</v>
+        <v>0.6273943050413638</v>
       </c>
       <c r="E17">
-        <v>0.1881765778972578</v>
+        <v>0.1796604857883141</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -5480,10 +5504,10 @@
         <v>1</v>
       </c>
       <c r="D18">
-        <v>0.6781046365914787</v>
+        <v>0.580391545159347</v>
       </c>
       <c r="E18">
-        <v>0.2482863091713513</v>
+        <v>0.3206824205673581</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -5491,7 +5515,7 @@
         <v>31</v>
       </c>
       <c r="D19">
-        <v>0.3542427022222222</v>
+        <v>0.3633712355555554</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -5499,7 +5523,7 @@
         <v>32</v>
       </c>
       <c r="D20">
-        <v>0.3860825706731748</v>
+        <v>0.401196863489481</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -5507,7 +5531,7 @@
         <v>33</v>
       </c>
       <c r="D21">
-        <v>-46.40364452798664</v>
+        <v>-42.38756592564642</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -5515,7 +5539,7 @@
         <v>34</v>
       </c>
       <c r="D22">
-        <v>1.28339894542656</v>
+        <v>1.259926050590764</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -5523,7 +5547,7 @@
         <v>35</v>
       </c>
       <c r="D23">
-        <v>-0.05269453414381129</v>
+        <v>-0.04486606872568741</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -5531,7 +5555,7 @@
         <v>36</v>
       </c>
       <c r="D24">
-        <v>1206.859168064668</v>
+        <v>1258.309829182152</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -5539,7 +5563,7 @@
         <v>37</v>
       </c>
       <c r="D25">
-        <v>4305.25273948825</v>
+        <v>4478.454298053728</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -5547,16 +5571,16 @@
         <v>38</v>
       </c>
       <c r="B26">
-        <v>3.890373626373627</v>
+        <v>3.821211428571429</v>
       </c>
       <c r="C26">
-        <v>18.04460952380952</v>
+        <v>17.85040551724138</v>
       </c>
       <c r="D26">
-        <v>7.215147649463025</v>
+        <v>7.052583482748062</v>
       </c>
       <c r="E26">
-        <v>3.053270560103215</v>
+        <v>3.013775659617545</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -5564,16 +5588,16 @@
         <v>39</v>
       </c>
       <c r="B27">
-        <v>1.243386243386243</v>
+        <v>1.24367816091954</v>
       </c>
       <c r="C27">
-        <v>3.054545454545455</v>
+        <v>3.171428571428571</v>
       </c>
       <c r="D27">
-        <v>2.098843662134856</v>
+        <v>2.178329018880957</v>
       </c>
       <c r="E27">
-        <v>0.3966024463523186</v>
+        <v>0.4256090230156795</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -5581,16 +5605,16 @@
         <v>40</v>
       </c>
       <c r="B28">
-        <v>0.4</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C28">
-        <v>0.9629629629629629</v>
+        <v>1</v>
       </c>
       <c r="D28">
-        <v>0.5763527960973782</v>
+        <v>0.5936107519931049</v>
       </c>
       <c r="E28">
-        <v>0.1440112266116597</v>
+        <v>0.1405430663592766</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -5601,13 +5625,13 @@
         <v>0</v>
       </c>
       <c r="C29">
-        <v>0.9084398934398934</v>
+        <v>0.877958344518183</v>
       </c>
       <c r="D29">
-        <v>0.4074734265316972</v>
+        <v>0.3804709234782608</v>
       </c>
       <c r="E29">
-        <v>0.2038625275557477</v>
+        <v>0.2318815115919474</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -5615,16 +5639,16 @@
         <v>42</v>
       </c>
       <c r="B30">
-        <v>0.3140388706802369</v>
+        <v>0.3034992784992785</v>
       </c>
       <c r="C30">
-        <v>0.7414695155193487</v>
+        <v>0.7782617362951727</v>
       </c>
       <c r="D30">
-        <v>0.4548195590522354</v>
+        <v>0.4499945495020731</v>
       </c>
       <c r="E30">
-        <v>0.09649942575429334</v>
+        <v>0.09926744508838931</v>
       </c>
     </row>
   </sheetData>
@@ -5705,7 +5729,7 @@
         <v>18</v>
       </c>
       <c r="D6">
-        <v>0.05732227823373656</v>
+        <v>0.0573222782337366</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -6027,7 +6051,7 @@
         <v>0.4994340120352899</v>
       </c>
       <c r="D29">
-        <v>0.2792912512321877</v>
+        <v>0.2792912512321876</v>
       </c>
       <c r="E29">
         <v>0.1379672130259797</v>
@@ -6041,13 +6065,13 @@
         <v>0.3259996413842568</v>
       </c>
       <c r="C30">
-        <v>0.5741254846393189</v>
+        <v>0.574125484639319</v>
       </c>
       <c r="D30">
         <v>0.4519833176807339</v>
       </c>
       <c r="E30">
-        <v>0.07013099896394322</v>
+        <v>0.07013099896394323</v>
       </c>
     </row>
   </sheetData>
@@ -6087,16 +6111,16 @@
         <v>14</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C2">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D2">
         <v>27.09090909090909</v>
       </c>
       <c r="E2">
-        <v>9.727697526833044</v>
+        <v>8.425659353260734</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -6112,7 +6136,7 @@
         <v>16</v>
       </c>
       <c r="D4">
-        <v>2.784925108555346</v>
+        <v>3.215286537833374</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6120,7 +6144,7 @@
         <v>17</v>
       </c>
       <c r="D5">
-        <v>1.916666666666667</v>
+        <v>2.521739130434783</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -6128,7 +6152,7 @@
         <v>18</v>
       </c>
       <c r="D6">
-        <v>0.05238457077494077</v>
+        <v>0.05307912528525605</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -6136,16 +6160,16 @@
         <v>19</v>
       </c>
       <c r="B7">
-        <v>0.5969785575048734</v>
+        <v>0.6046594982078852</v>
       </c>
       <c r="C7">
-        <v>0.8173291111596418</v>
+        <v>0.7961575472464777</v>
       </c>
       <c r="D7">
-        <v>0.7216555728374572</v>
+        <v>0.7161448570877723</v>
       </c>
       <c r="E7">
-        <v>0.05833634095598032</v>
+        <v>0.06069805107450051</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -6153,16 +6177,16 @@
         <v>20</v>
       </c>
       <c r="B8">
-        <v>0.08970099667774087</v>
+        <v>0.1015873015873016</v>
       </c>
       <c r="C8">
-        <v>0.2888888888888889</v>
+        <v>0.303448275862069</v>
       </c>
       <c r="D8">
-        <v>0.1703336086112981</v>
+        <v>0.1697858716198998</v>
       </c>
       <c r="E8">
-        <v>0.05536556581659167</v>
+        <v>0.0546339187551325</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -6170,16 +6194,16 @@
         <v>21</v>
       </c>
       <c r="B9">
-        <v>2.6</v>
+        <v>2.307692307692307</v>
       </c>
       <c r="C9">
-        <v>8.833333333333334</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="D9">
-        <v>4.171789794215917</v>
+        <v>4.288635955385309</v>
       </c>
       <c r="E9">
-        <v>1.74952392477875</v>
+        <v>1.842851755654604</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -6193,10 +6217,10 @@
         <v>0.5</v>
       </c>
       <c r="D10">
-        <v>0.42207407559588</v>
+        <v>0.4231111833360709</v>
       </c>
       <c r="E10">
-        <v>0.07747173411136858</v>
+        <v>0.08264921001724797</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -6204,16 +6228,16 @@
         <v>23</v>
       </c>
       <c r="B11">
-        <v>5.7</v>
+        <v>6.222222222222222</v>
       </c>
       <c r="C11">
-        <v>9.25</v>
+        <v>11.22727272727273</v>
       </c>
       <c r="D11">
-        <v>7.956651421995815</v>
+        <v>7.926147884814745</v>
       </c>
       <c r="E11">
-        <v>1.225789168503435</v>
+        <v>1.41235451475828</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -6221,16 +6245,16 @@
         <v>24</v>
       </c>
       <c r="B12">
-        <v>0.01979166666666667</v>
+        <v>0.02267206477732794</v>
       </c>
       <c r="C12">
-        <v>0.03498727735368957</v>
+        <v>0.04067852437417655</v>
       </c>
       <c r="D12">
-        <v>0.02943066984264187</v>
+        <v>0.0292977615961606</v>
       </c>
       <c r="E12">
-        <v>0.004745349442763109</v>
+        <v>0.005290150945757038</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -6238,16 +6262,16 @@
         <v>25</v>
       </c>
       <c r="B13">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C13">
-        <v>159</v>
+        <v>132</v>
       </c>
       <c r="D13">
-        <v>61.72727272727273</v>
+        <v>62.54545454545455</v>
       </c>
       <c r="E13">
-        <v>41.9677168332797</v>
+        <v>37.75125196325796</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -6255,16 +6279,16 @@
         <v>26</v>
       </c>
       <c r="B14">
-        <v>0.5092592592592593</v>
+        <v>0.5268817204301075</v>
       </c>
       <c r="C14">
-        <v>0.7789473684210526</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="D14">
-        <v>0.6651296758806162</v>
+        <v>0.65998538412157</v>
       </c>
       <c r="E14">
-        <v>0.0709029301564482</v>
+        <v>0.0733765258584454</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -6275,13 +6299,13 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D15">
-        <v>29.54545454545455</v>
+        <v>28.90909090909091</v>
       </c>
       <c r="E15">
-        <v>6.005507114514089</v>
+        <v>5.451514309296345</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -6289,16 +6313,16 @@
         <v>28</v>
       </c>
       <c r="B16">
-        <v>5.7</v>
+        <v>6.222222222222222</v>
       </c>
       <c r="C16">
-        <v>9.25</v>
+        <v>11.22727272727273</v>
       </c>
       <c r="D16">
-        <v>7.956651421995815</v>
+        <v>7.926147884814745</v>
       </c>
       <c r="E16">
-        <v>1.225789168503435</v>
+        <v>1.41235451475828</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -6306,16 +6330,16 @@
         <v>29</v>
       </c>
       <c r="B17">
-        <v>0.3611111111111111</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="C17">
-        <v>0.8125</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="D17">
-        <v>0.6325878394593943</v>
+        <v>0.6331725083633221</v>
       </c>
       <c r="E17">
-        <v>0.1307206540233907</v>
+        <v>0.1455312623291384</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -6323,16 +6347,16 @@
         <v>30</v>
       </c>
       <c r="B18">
-        <v>0.4347826086956522</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="C18">
-        <v>0.775</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="D18">
-        <v>0.6223427054180258</v>
+        <v>0.6228964557242463</v>
       </c>
       <c r="E18">
-        <v>0.1188492994577051</v>
+        <v>0.1546111267891151</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -6340,7 +6364,7 @@
         <v>31</v>
       </c>
       <c r="D19">
-        <v>0.2507444622222222</v>
+        <v>0.2600540444444445</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -6348,7 +6372,7 @@
         <v>32</v>
       </c>
       <c r="D20">
-        <v>0.2625242672813143</v>
+        <v>0.2702619212256797</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -6356,7 +6380,7 @@
         <v>33</v>
       </c>
       <c r="D21">
-        <v>-41.63347790557888</v>
+        <v>-40.01263122372381</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -6364,7 +6388,7 @@
         <v>34</v>
       </c>
       <c r="D22">
-        <v>0.7969931247609207</v>
+        <v>0.8417085802876255</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -6372,7 +6396,7 @@
         <v>35</v>
       </c>
       <c r="D23">
-        <v>0.03418823147977565</v>
+        <v>0.03498307108788102</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -6380,7 +6404,7 @@
         <v>36</v>
       </c>
       <c r="D24">
-        <v>464.1646342910157</v>
+        <v>495.7062429677603</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -6388,7 +6412,7 @@
         <v>37</v>
       </c>
       <c r="D25">
-        <v>2800.834814066183</v>
+        <v>2870.710359476945</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -6396,16 +6420,16 @@
         <v>38</v>
       </c>
       <c r="B26">
-        <v>2.117087043189369</v>
+        <v>2.397622857142857</v>
       </c>
       <c r="C26">
-        <v>6.818239999999999</v>
+        <v>7.161864827586207</v>
       </c>
       <c r="D26">
-        <v>4.020145697000413</v>
+        <v>4.007218227624228</v>
       </c>
       <c r="E26">
-        <v>1.30671593817687</v>
+        <v>1.289447896891135</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -6413,16 +6437,16 @@
         <v>39</v>
       </c>
       <c r="B27">
-        <v>2.177777777777778</v>
+        <v>2.04367816091954</v>
       </c>
       <c r="C27">
-        <v>3.035573122529644</v>
+        <v>3.256410256410256</v>
       </c>
       <c r="D27">
-        <v>2.564224532455869</v>
+        <v>2.660744676265191</v>
       </c>
       <c r="E27">
-        <v>0.2633431709630723</v>
+        <v>0.3543609426942763</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -6433,13 +6457,13 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="C28">
-        <v>0.5714285714285714</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="D28">
-        <v>0.4465504843803964</v>
+        <v>0.4361932747412892</v>
       </c>
       <c r="E28">
-        <v>0.07882533572654166</v>
+        <v>0.09374351676533321</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -6447,16 +6471,16 @@
         <v>41</v>
       </c>
       <c r="B29">
-        <v>0.1309523809523809</v>
+        <v>0.1383030303030303</v>
       </c>
       <c r="C29">
-        <v>0.4988130803855778</v>
+        <v>0.5815243413850225</v>
       </c>
       <c r="D29">
-        <v>0.3127200945338973</v>
+        <v>0.311432267676356</v>
       </c>
       <c r="E29">
-        <v>0.1114321175181459</v>
+        <v>0.1247838117769813</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -6464,16 +6488,16 @@
         <v>42</v>
       </c>
       <c r="B30">
-        <v>0.2945531054289278</v>
+        <v>0.2889148900121</v>
       </c>
       <c r="C30">
-        <v>0.5112985224309717</v>
+        <v>0.5180548843532798</v>
       </c>
       <c r="D30">
-        <v>0.4132129894028879</v>
+        <v>0.4169214502135168</v>
       </c>
       <c r="E30">
-        <v>0.06227414036382753</v>
+        <v>0.07206816539426547</v>
       </c>
     </row>
   </sheetData>
@@ -6513,16 +6537,16 @@
         <v>14</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D2">
-        <v>22.92307692307692</v>
+        <v>27.09090909090909</v>
       </c>
       <c r="E2">
-        <v>13.83118849368806</v>
+        <v>7.948179270688871</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -6530,7 +6554,7 @@
         <v>15</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -6538,7 +6562,7 @@
         <v>16</v>
       </c>
       <c r="D4">
-        <v>1.657346867446568</v>
+        <v>3.408442130993997</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6546,7 +6570,7 @@
         <v>17</v>
       </c>
       <c r="D5">
-        <v>0.8461538461538461</v>
+        <v>2.454545454545455</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -6554,7 +6578,7 @@
         <v>18</v>
       </c>
       <c r="D6">
-        <v>0.0487585423107072</v>
+        <v>0.04821869430260466</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -6562,16 +6586,16 @@
         <v>19</v>
       </c>
       <c r="B7">
-        <v>0.6238294759419849</v>
+        <v>0.616331825288167</v>
       </c>
       <c r="C7">
-        <v>0.8369722828327751</v>
+        <v>0.8068722067553363</v>
       </c>
       <c r="D7">
-        <v>0.765461608398266</v>
+        <v>0.7461952963441729</v>
       </c>
       <c r="E7">
-        <v>0.05965681279312713</v>
+        <v>0.047824369125117</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -6579,16 +6603,16 @@
         <v>20</v>
       </c>
       <c r="B8">
-        <v>0.0821256038647343</v>
+        <v>0.09530583214793741</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0.2584670231729055</v>
       </c>
       <c r="D8">
-        <v>0.2605502295652695</v>
+        <v>0.1569853998844493</v>
       </c>
       <c r="E8">
-        <v>0.2342314590836809</v>
+        <v>0.04769448814054521</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -6596,16 +6620,16 @@
         <v>21</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>1.777777777777778</v>
       </c>
       <c r="C9">
-        <v>8.300000000000001</v>
+        <v>8.529411764705882</v>
       </c>
       <c r="D9">
-        <v>3.43806965231253</v>
+        <v>3.932244518467429</v>
       </c>
       <c r="E9">
-        <v>1.782089177737104</v>
+        <v>1.625217854156799</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -6613,16 +6637,16 @@
         <v>22</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C10">
-        <v>0.5</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="D10">
-        <v>0.3118003839143269</v>
+        <v>0.3630173877992623</v>
       </c>
       <c r="E10">
-        <v>0.1609553085844539</v>
+        <v>0.08727978976455084</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -6630,16 +6654,16 @@
         <v>23</v>
       </c>
       <c r="B11">
-        <v>4.5</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="C11">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="D11">
-        <v>8.094226040140581</v>
+        <v>8.263443395894845</v>
       </c>
       <c r="E11">
-        <v>1.84631151482143</v>
+        <v>1.166110935899987</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -6647,16 +6671,16 @@
         <v>24</v>
       </c>
       <c r="B12">
-        <v>0.0152027027027027</v>
+        <v>0.02191464821222607</v>
       </c>
       <c r="C12">
-        <v>0.03888888888888889</v>
+        <v>0.03726235741444867</v>
       </c>
       <c r="D12">
-        <v>0.02956793457932462</v>
+        <v>0.03057200390496457</v>
       </c>
       <c r="E12">
-        <v>0.006932416775139669</v>
+        <v>0.004662246907132874</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -6664,16 +6688,16 @@
         <v>25</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C13">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="D13">
-        <v>48.61538461538461</v>
+        <v>56.81818181818182</v>
       </c>
       <c r="E13">
-        <v>44.25370642719521</v>
+        <v>33.5662660252229</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -6681,16 +6705,16 @@
         <v>26</v>
       </c>
       <c r="B14">
-        <v>0.5263908701854494</v>
+        <v>0.5299837925445705</v>
       </c>
       <c r="C14">
-        <v>0.8245614035087719</v>
+        <v>0.7808219178082192</v>
       </c>
       <c r="D14">
-        <v>0.7159816040876065</v>
+        <v>0.6874734705815047</v>
       </c>
       <c r="E14">
-        <v>0.08363393680071546</v>
+        <v>0.0602396891076923</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -6698,16 +6722,16 @@
         <v>27</v>
       </c>
       <c r="B15">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C15">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D15">
-        <v>25.30769230769231</v>
+        <v>29.72727272727273</v>
       </c>
       <c r="E15">
-        <v>10.01064522153689</v>
+        <v>6.496025485436308</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -6715,16 +6739,16 @@
         <v>28</v>
       </c>
       <c r="B16">
-        <v>4.5</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="C16">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="D16">
-        <v>8.094226040140581</v>
+        <v>8.263443395894845</v>
       </c>
       <c r="E16">
-        <v>1.84631151482143</v>
+        <v>1.166110935899987</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -6732,16 +6756,16 @@
         <v>29</v>
       </c>
       <c r="B17">
-        <v>0.475</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="D17">
-        <v>0.7277071102783246</v>
+        <v>0.6848731403667373</v>
       </c>
       <c r="E17">
-        <v>0.1372487711454269</v>
+        <v>0.118936418951701</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -6752,13 +6776,13 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.8333333333333334</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="D18">
-        <v>0.4464706447090255</v>
+        <v>0.5758740551908297</v>
       </c>
       <c r="E18">
-        <v>0.2881965525766897</v>
+        <v>0.2195209378497691</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -6766,7 +6790,7 @@
         <v>31</v>
       </c>
       <c r="D19">
-        <v>0.2239067022222222</v>
+        <v>0.2275414755555555</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -6774,7 +6798,7 @@
         <v>32</v>
       </c>
       <c r="D20">
-        <v>0.2351526721352225</v>
+        <v>0.2376336067611236</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -6782,7 +6806,7 @@
         <v>33</v>
       </c>
       <c r="D21">
-        <v>-60.53003304176467</v>
+        <v>-47.64318765170159</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -6790,7 +6814,7 @@
         <v>34</v>
       </c>
       <c r="D22">
-        <v>0.7068024513066337</v>
+        <v>0.7398013818708095</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -6798,7 +6822,7 @@
         <v>35</v>
       </c>
       <c r="D23">
-        <v>0.05398270367343998</v>
+        <v>0.02738876603741223</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -6806,29 +6830,32 @@
         <v>36</v>
       </c>
       <c r="D24">
-        <v>378.6036100001463</v>
+        <v>398.8655990756294</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="D25">
+        <v>2548.580167873073</v>
+      </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B26">
-        <v>1.938295652173913</v>
+        <v>2.24937012802276</v>
       </c>
       <c r="C26">
-        <v>23.6016</v>
+        <v>6.100235294117648</v>
       </c>
       <c r="D26">
-        <v>6.149402298107666</v>
+        <v>3.705106613912819</v>
       </c>
       <c r="E26">
-        <v>5.528237204709404</v>
+        <v>1.125666231297892</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -6836,16 +6863,16 @@
         <v>39</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>2.267806267806268</v>
       </c>
       <c r="C27">
-        <v>3.069264069264069</v>
+        <v>3.043290043290043</v>
       </c>
       <c r="D27">
-        <v>2.398302647432268</v>
+        <v>2.680750367538407</v>
       </c>
       <c r="E27">
-        <v>0.5481726858221172</v>
+        <v>0.2140493257730187</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -6853,16 +6880,16 @@
         <v>40</v>
       </c>
       <c r="B28">
-        <v>0.3333333333333333</v>
+        <v>0.2580645161290323</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="D28">
-        <v>0.4998354963287089</v>
+        <v>0.404082871378024</v>
       </c>
       <c r="E28">
-        <v>0.1652689273153802</v>
+        <v>0.1077250445578656</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -6873,13 +6900,13 @@
         <v>0</v>
       </c>
       <c r="C29">
-        <v>0.4755663928864393</v>
+        <v>0.4941043083900226</v>
       </c>
       <c r="D29">
-        <v>0.2206443765667457</v>
+        <v>0.2723555287068262</v>
       </c>
       <c r="E29">
-        <v>0.1615385767143778</v>
+        <v>0.1416754693580481</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -6887,16 +6914,16 @@
         <v>42</v>
       </c>
       <c r="B30">
-        <v>0.1833333333333333</v>
+        <v>0.2969135802469136</v>
       </c>
       <c r="C30">
-        <v>0.469716682310138</v>
+        <v>0.4904966977306953</v>
       </c>
       <c r="D30">
-        <v>0.3545206919993179</v>
+        <v>0.3932779782606136</v>
       </c>
       <c r="E30">
-        <v>0.08675884540545117</v>
+        <v>0.05211614949264413</v>
       </c>
     </row>
   </sheetData>
@@ -7299,7 +7326,7 @@
         <v>0</v>
       </c>
       <c r="C29">
-        <v>0.588025404710925</v>
+        <v>0.5880254047109251</v>
       </c>
       <c r="D29">
         <v>0.3086453888134358</v>
@@ -7362,16 +7389,16 @@
         <v>14</v>
       </c>
       <c r="B2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C2">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D2">
-        <v>29.8</v>
+        <v>27.09090909090909</v>
       </c>
       <c r="E2">
-        <v>10.57166022912201</v>
+        <v>10.57831869657371</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -7379,7 +7406,7 @@
         <v>15</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -7387,7 +7414,7 @@
         <v>16</v>
       </c>
       <c r="D4">
-        <v>2.818857147707909</v>
+        <v>2.560984393454109</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7395,7 +7422,7 @@
         <v>17</v>
       </c>
       <c r="D5">
-        <v>1.855072463768116</v>
+        <v>1.371428571428571</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -7403,7 +7430,7 @@
         <v>18</v>
       </c>
       <c r="D6">
-        <v>0.05778441093994242</v>
+        <v>0.05122772172347635</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -7411,16 +7438,16 @@
         <v>19</v>
       </c>
       <c r="B7">
-        <v>0.5226308345120226</v>
+        <v>0.646592699560941</v>
       </c>
       <c r="C7">
-        <v>0.8308691153647181</v>
+        <v>0.8409266907589056</v>
       </c>
       <c r="D7">
-        <v>0.7057858158486561</v>
+        <v>0.7389624907851601</v>
       </c>
       <c r="E7">
-        <v>0.08277496087213719</v>
+        <v>0.06862016303452803</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -7428,16 +7455,16 @@
         <v>20</v>
       </c>
       <c r="B8">
-        <v>0.09268292682926829</v>
+        <v>0.09716599190283401</v>
       </c>
       <c r="C8">
-        <v>0.217948717948718</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="D8">
-        <v>0.1562827270334774</v>
+        <v>0.1713912663823905</v>
       </c>
       <c r="E8">
-        <v>0.03726411251260574</v>
+        <v>0.0776643724446571</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -7445,16 +7472,16 @@
         <v>21</v>
       </c>
       <c r="B9">
-        <v>2.333333333333333</v>
+        <v>2.095238095238095</v>
       </c>
       <c r="C9">
-        <v>9.702127659574469</v>
+        <v>7.586206896551724</v>
       </c>
       <c r="D9">
-        <v>4.436517125148155</v>
+        <v>4.054444634073855</v>
       </c>
       <c r="E9">
-        <v>2.102309059663107</v>
+        <v>1.680280255972627</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -7462,16 +7489,16 @@
         <v>22</v>
       </c>
       <c r="B10">
-        <v>0.2173913043478261</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="C10">
-        <v>0.5</v>
+        <v>0.4827586206896552</v>
       </c>
       <c r="D10">
-        <v>0.3918372486774204</v>
+        <v>0.3812818859144811</v>
       </c>
       <c r="E10">
-        <v>0.09591412827669162</v>
+        <v>0.09404843817362402</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -7479,16 +7506,16 @@
         <v>23</v>
       </c>
       <c r="B11">
-        <v>5.75609756097561</v>
+        <v>6.692307692307693</v>
       </c>
       <c r="C11">
-        <v>8.777777777777779</v>
+        <v>12</v>
       </c>
       <c r="D11">
-        <v>7.649819827077105</v>
+        <v>8.381821332369238</v>
       </c>
       <c r="E11">
-        <v>0.9421484110072136</v>
+        <v>1.55147634882694</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -7496,16 +7523,16 @@
         <v>24</v>
       </c>
       <c r="B12">
-        <v>0.02239726677422416</v>
+        <v>0.02348178137651822</v>
       </c>
       <c r="C12">
-        <v>0.03302552960347637</v>
+        <v>0.04181184668989547</v>
       </c>
       <c r="D12">
-        <v>0.02852651865976549</v>
+        <v>0.03089320149196847</v>
       </c>
       <c r="E12">
-        <v>0.003376592156860324</v>
+        <v>0.005181570154695137</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -7516,13 +7543,13 @@
         <v>17</v>
       </c>
       <c r="C13">
-        <v>228</v>
+        <v>142</v>
       </c>
       <c r="D13">
-        <v>74.90000000000001</v>
+        <v>60.36363636363637</v>
       </c>
       <c r="E13">
-        <v>59.09729266218547</v>
+        <v>41.39229776238071</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -7530,16 +7557,16 @@
         <v>26</v>
       </c>
       <c r="B14">
-        <v>0.4285714285714285</v>
+        <v>0.554160125588697</v>
       </c>
       <c r="C14">
-        <v>0.79</v>
+        <v>0.7980769230769231</v>
       </c>
       <c r="D14">
-        <v>0.6467628769133752</v>
+        <v>0.6817573427727087</v>
       </c>
       <c r="E14">
-        <v>0.09931458828331512</v>
+        <v>0.08501194801182875</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -7550,13 +7577,13 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D15">
-        <v>28.5</v>
+        <v>29.18181818181818</v>
       </c>
       <c r="E15">
-        <v>5.714017850864661</v>
+        <v>6.072563960787177</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -7564,16 +7591,16 @@
         <v>28</v>
       </c>
       <c r="B16">
-        <v>5.75609756097561</v>
+        <v>6.692307692307693</v>
       </c>
       <c r="C16">
-        <v>8.777777777777779</v>
+        <v>12</v>
       </c>
       <c r="D16">
-        <v>7.649819827077105</v>
+        <v>8.381821332369238</v>
       </c>
       <c r="E16">
-        <v>0.9421484110072136</v>
+        <v>1.55147634882694</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -7581,16 +7608,16 @@
         <v>29</v>
       </c>
       <c r="B17">
-        <v>0.2765957446808511</v>
+        <v>0.4418604651162791</v>
       </c>
       <c r="C17">
-        <v>0.8888888888888888</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="D17">
-        <v>0.6100363833123305</v>
+        <v>0.6644139796376185</v>
       </c>
       <c r="E17">
-        <v>0.1764800816807119</v>
+        <v>0.1397968838786916</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -7598,16 +7625,16 @@
         <v>30</v>
       </c>
       <c r="B18">
-        <v>0.2222222222222222</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>0.8235294117647058</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="D18">
-        <v>0.611127563528689</v>
+        <v>0.5782229600455919</v>
       </c>
       <c r="E18">
-        <v>0.1747330839530528</v>
+        <v>0.2326727108248919</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -7615,7 +7642,7 @@
         <v>31</v>
       </c>
       <c r="D19">
-        <v>0.2748967822222222</v>
+        <v>0.2436700444444444</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -7623,7 +7650,7 @@
         <v>32</v>
       </c>
       <c r="D20">
-        <v>0.2898695772038053</v>
+        <v>0.2523775201681243</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -7631,7 +7658,7 @@
         <v>33</v>
       </c>
       <c r="D21">
-        <v>-32.13302701928952</v>
+        <v>-47.60114368124921</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -7639,7 +7666,7 @@
         <v>34</v>
       </c>
       <c r="D22">
-        <v>0.8324389335567511</v>
+        <v>0.7773403645475797</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -7647,7 +7674,7 @@
         <v>35</v>
       </c>
       <c r="D23">
-        <v>0.03426711275851106</v>
+        <v>0.03042276704517889</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -7655,7 +7682,7 @@
         <v>36</v>
       </c>
       <c r="D24">
-        <v>525.2145446110347</v>
+        <v>428.6257817893614</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -7663,7 +7690,7 @@
         <v>37</v>
       </c>
       <c r="D25">
-        <v>3075.405680281792</v>
+        <v>2706.568163700891</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -7671,16 +7698,16 @@
         <v>38</v>
       </c>
       <c r="B26">
-        <v>2.187465365853658</v>
+        <v>2.293272874493927</v>
       </c>
       <c r="C26">
-        <v>5.143938461538462</v>
+        <v>8.582400000000002</v>
       </c>
       <c r="D26">
-        <v>3.688522410353321</v>
+        <v>4.045108112650627</v>
       </c>
       <c r="E26">
-        <v>0.8794926778775157</v>
+        <v>1.833003452689819</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -7688,16 +7715,16 @@
         <v>39</v>
       </c>
       <c r="B27">
-        <v>2.254901960784314</v>
+        <v>1.945454545454546</v>
       </c>
       <c r="C27">
         <v>3.256410256410256</v>
       </c>
       <c r="D27">
-        <v>2.639140237255407</v>
+        <v>2.677727251987557</v>
       </c>
       <c r="E27">
-        <v>0.2819826963287198</v>
+        <v>0.3983173286713621</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -7705,16 +7732,16 @@
         <v>40</v>
       </c>
       <c r="B28">
-        <v>0.2941176470588235</v>
+        <v>0.3142857142857143</v>
       </c>
       <c r="C28">
-        <v>0.5555555555555556</v>
+        <v>0.7</v>
       </c>
       <c r="D28">
-        <v>0.4246867875620411</v>
+        <v>0.4307944522943483</v>
       </c>
       <c r="E28">
-        <v>0.08860474950798544</v>
+        <v>0.1186132563652918</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -7722,16 +7749,16 @@
         <v>41</v>
       </c>
       <c r="B29">
-        <v>0.06419753086419754</v>
+        <v>0</v>
       </c>
       <c r="C29">
-        <v>0.5310925750084539</v>
+        <v>0.5242085669570457</v>
       </c>
       <c r="D29">
-        <v>0.2933826349649917</v>
+        <v>0.2835007238577495</v>
       </c>
       <c r="E29">
-        <v>0.1256045452938626</v>
+        <v>0.1470468020842389</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -7739,16 +7766,16 @@
         <v>42</v>
       </c>
       <c r="B30">
-        <v>0.30465424183283</v>
+        <v>0.2821615341992261</v>
       </c>
       <c r="C30">
-        <v>0.5634410602003975</v>
+        <v>0.5078433628481474</v>
       </c>
       <c r="D30">
-        <v>0.4214673970391138</v>
+        <v>0.4041797348712617</v>
       </c>
       <c r="E30">
-        <v>0.07861686880509575</v>
+        <v>0.07669636743083284</v>
       </c>
     </row>
   </sheetData>
@@ -7788,16 +7815,16 @@
         <v>14</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2">
         <v>14.9</v>
       </c>
       <c r="E2">
-        <v>4.948737212663449</v>
+        <v>3.83275357934736</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -7813,7 +7840,7 @@
         <v>16</v>
       </c>
       <c r="D4">
-        <v>3.010869108562082</v>
+        <v>3.887544474627343</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7821,7 +7848,7 @@
         <v>17</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>2.666666666666667</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -7829,7 +7856,7 @@
         <v>18</v>
       </c>
       <c r="D6">
-        <v>0.06164136272574344</v>
+        <v>0.06117857925664939</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -7837,16 +7864,16 @@
         <v>19</v>
       </c>
       <c r="B7">
-        <v>0.3498317553869626</v>
+        <v>0.357980036208467</v>
       </c>
       <c r="C7">
-        <v>1.005041124966835</v>
+        <v>0.7858452100400255</v>
       </c>
       <c r="D7">
-        <v>0.6645530850238776</v>
+        <v>0.643052600830759</v>
       </c>
       <c r="E7">
-        <v>0.1289627698052547</v>
+        <v>0.09741173929764373</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -7854,16 +7881,16 @@
         <v>20</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="C8">
-        <v>0.935064935064935</v>
+        <v>0.9952380952380953</v>
       </c>
       <c r="D8">
-        <v>0.3328890979348645</v>
+        <v>0.3608796526457046</v>
       </c>
       <c r="E8">
-        <v>0.1897371881132373</v>
+        <v>0.1831206687355644</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -7871,16 +7898,16 @@
         <v>21</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="C9">
-        <v>19.63636363636364</v>
+        <v>19.90476190476191</v>
       </c>
       <c r="D9">
-        <v>4.780728438228438</v>
+        <v>4.946213569749376</v>
       </c>
       <c r="E9">
-        <v>3.711846025973217</v>
+        <v>3.548663285468039</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -7894,10 +7921,10 @@
         <v>0.5</v>
       </c>
       <c r="D10">
-        <v>0.3974284130901778</v>
+        <v>0.393635277233423</v>
       </c>
       <c r="E10">
-        <v>0.1136623336125024</v>
+        <v>0.1291533212989174</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -7905,16 +7932,16 @@
         <v>23</v>
       </c>
       <c r="B11">
-        <v>4.65</v>
+        <v>4.722222222222222</v>
       </c>
       <c r="C11">
-        <v>14</v>
+        <v>12.375</v>
       </c>
       <c r="D11">
-        <v>7.603365576417046</v>
+        <v>7.35944185183955</v>
       </c>
       <c r="E11">
-        <v>2.275554156767309</v>
+        <v>2.07778664849418</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -7922,16 +7949,16 @@
         <v>24</v>
       </c>
       <c r="B12">
-        <v>0.01648998822143698</v>
+        <v>0.01686507936507936</v>
       </c>
       <c r="C12">
-        <v>0.04844290657439446</v>
+        <v>0.04388297872340426</v>
       </c>
       <c r="D12">
-        <v>0.02679566238018645</v>
+        <v>0.02598266872915191</v>
       </c>
       <c r="E12">
-        <v>0.007754967918249755</v>
+        <v>0.007278114141352791</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -7939,16 +7966,16 @@
         <v>25</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C13">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="D13">
-        <v>39.95</v>
+        <v>39.65</v>
       </c>
       <c r="E13">
-        <v>42.97147309553165</v>
+        <v>40.66358936444248</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -7956,16 +7983,16 @@
         <v>26</v>
       </c>
       <c r="B14">
-        <v>0.2975609756097561</v>
+        <v>0.3056478405315615</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>0.7593984962406015</v>
       </c>
       <c r="D14">
-        <v>0.6360048744707326</v>
+        <v>0.6143799226892371</v>
       </c>
       <c r="E14">
-        <v>0.1347692670001492</v>
+        <v>0.0990597169692413</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -7979,10 +8006,10 @@
         <v>42</v>
       </c>
       <c r="D15">
-        <v>23.6</v>
+        <v>25.3</v>
       </c>
       <c r="E15">
-        <v>9.107140056021979</v>
+        <v>8.978307190111062</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -7990,16 +8017,16 @@
         <v>28</v>
       </c>
       <c r="B16">
-        <v>4.65</v>
+        <v>4.722222222222222</v>
       </c>
       <c r="C16">
-        <v>14</v>
+        <v>12.375</v>
       </c>
       <c r="D16">
-        <v>7.603365576417046</v>
+        <v>7.35944185183955</v>
       </c>
       <c r="E16">
-        <v>2.275554156767309</v>
+        <v>2.07778664849418</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -8010,13 +8037,13 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="D17">
-        <v>0.5690823392293981</v>
+        <v>0.5365166231182855</v>
       </c>
       <c r="E17">
-        <v>0.2247182827536645</v>
+        <v>0.2061342546877402</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -8024,16 +8051,16 @@
         <v>30</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18">
-        <v>0.7352003796856739</v>
+        <v>0.7756717822174983</v>
       </c>
       <c r="E18">
-        <v>0.2371443881125337</v>
+        <v>0.127591797758582</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -8041,7 +8068,7 @@
         <v>31</v>
       </c>
       <c r="D19">
-        <v>0.35769728</v>
+        <v>0.3562248533333333</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -8049,7 +8076,7 @@
         <v>32</v>
       </c>
       <c r="D20">
-        <v>0.3737978984475628</v>
+        <v>0.3728124375748537</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -8057,7 +8084,7 @@
         <v>33</v>
       </c>
       <c r="D21">
-        <v>-56.45274276377217</v>
+        <v>-48.26456564180349</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -8065,7 +8092,7 @@
         <v>34</v>
       </c>
       <c r="D22">
-        <v>1.416663888277188</v>
+        <v>1.427660796270332</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -8073,7 +8100,7 @@
         <v>35</v>
       </c>
       <c r="D23">
-        <v>-0.07362936625346751</v>
+        <v>-0.07771287665928946</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -8081,29 +8108,32 @@
         <v>36</v>
       </c>
       <c r="D24">
-        <v>1135.840420216738</v>
+        <v>1152.047987053562</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="D25">
+        <v>4248.360125853538</v>
+      </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>4.164988235294119</v>
       </c>
       <c r="C26">
-        <v>22.06902857142857</v>
+        <v>23.48921142857143</v>
       </c>
       <c r="D26">
-        <v>7.856715333819499</v>
+        <v>8.517337209882863</v>
       </c>
       <c r="E26">
-        <v>4.478101218973382</v>
+        <v>4.321940775229297</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -8111,16 +8141,16 @@
         <v>39</v>
       </c>
       <c r="B27">
-        <v>1.064935064935065</v>
+        <v>1.004761904761905</v>
       </c>
       <c r="C27">
-        <v>2.926315789473684</v>
+        <v>2.227941176470588</v>
       </c>
       <c r="D27">
-        <v>1.82736361360966</v>
+        <v>1.798355472942227</v>
       </c>
       <c r="E27">
-        <v>0.3861575256742426</v>
+        <v>0.3031869619612791</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -8128,16 +8158,16 @@
         <v>40</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>0.4375</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
       <c r="D28">
-        <v>0.6811334465496366</v>
+        <v>0.6868075708691034</v>
       </c>
       <c r="E28">
-        <v>0.2484710945471414</v>
+        <v>0.1449402655512079</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -8145,16 +8175,16 @@
         <v>41</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>0.1805555555555556</v>
       </c>
       <c r="C29">
-        <v>0.9742993848257003</v>
+        <v>0.995238095238095</v>
       </c>
       <c r="D29">
-        <v>0.497339949847358</v>
+        <v>0.5149736792347086</v>
       </c>
       <c r="E29">
-        <v>0.2181805605391395</v>
+        <v>0.1686746825958924</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -8162,16 +8192,16 @@
         <v>42</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>0.2599134525605114</v>
       </c>
       <c r="C30">
-        <v>0.7089387298166137</v>
+        <v>0.706294434794203</v>
       </c>
       <c r="D30">
-        <v>0.4396398711117732</v>
+        <v>0.4632828589024166</v>
       </c>
       <c r="E30">
-        <v>0.145198138151885</v>
+        <v>0.09691190389013161</v>
       </c>
     </row>
   </sheetData>
